--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1003">
   <si>
     <t>GCFV</t>
   </si>
@@ -3040,6 +3040,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>necesario excluir el que tiene xplane para evitar conflictos. Revisar con WED da un problema al cargar</t>
   </si>
 </sst>
 </file>
@@ -3066,7 +3072,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3085,6 +3091,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3098,7 +3116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3120,6 +3138,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3431,7 +3458,7 @@
   <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A287"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3474,10 +3501,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C2" s="1">
@@ -3851,7 +3878,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3877,7 +3904,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3903,7 +3930,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3929,7 +3956,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3955,7 +3982,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3981,7 +4008,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4007,7 +4034,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4033,7 +4060,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4059,11 +4086,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C25" s="1">
@@ -4084,8 +4111,11 @@
       <c r="H25" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="I25" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4111,7 +4141,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4137,7 +4167,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4163,7 +4193,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4189,7 +4219,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4215,7 +4245,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4241,7 +4271,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>1000</v>
       </c>

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1004">
   <si>
     <t>GCFV</t>
   </si>
@@ -3045,7 +3045,10 @@
     <t>si</t>
   </si>
   <si>
-    <t>necesario excluir el que tiene xplane para evitar conflictos. Revisar con WED da un problema al cargar</t>
+    <t>Existe en Xplane.es</t>
+  </si>
+  <si>
+    <t>modificar con wed. Las plataformas flotan</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3461,7 @@
   <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3474,7 +3477,7 @@
     <col min="9" max="9" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>996</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1001</v>
       </c>
@@ -3525,8 +3528,11 @@
       <c r="H2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="I2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3606,25 +3612,25 @@
         <v>997</v>
       </c>
       <c r="C6" s="1">
-        <v>-17755611</v>
+        <v>-17887056</v>
       </c>
       <c r="D6" s="1">
-        <v>28626478</v>
+        <v>27814847</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3632,25 +3638,19 @@
         <v>997</v>
       </c>
       <c r="C7" s="1">
-        <v>-15505278</v>
+        <v>-16291852</v>
       </c>
       <c r="D7" s="1">
-        <v>27781111</v>
+        <v>28455019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3658,25 +3658,25 @@
         <v>997</v>
       </c>
       <c r="C8" s="1">
-        <v>-15386586</v>
+        <v>-17755611</v>
       </c>
       <c r="D8" s="1">
-        <v>27931886</v>
+        <v>28626478</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3684,25 +3684,25 @@
         <v>997</v>
       </c>
       <c r="C9" s="1">
-        <v>-14484667</v>
+        <v>-15505278</v>
       </c>
       <c r="D9" s="1">
-        <v>28086667</v>
+        <v>27781111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3710,25 +3710,25 @@
         <v>997</v>
       </c>
       <c r="C10" s="1">
-        <v>-13605225</v>
+        <v>-15386586</v>
       </c>
       <c r="D10" s="1">
-        <v>2894546400000000</v>
+        <v>27931886</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3736,25 +3736,25 @@
         <v>997</v>
       </c>
       <c r="C11" s="1">
-        <v>-16572489</v>
+        <v>-14484667</v>
       </c>
       <c r="D11" s="1">
-        <v>28044475</v>
+        <v>28086667</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3762,25 +3762,25 @@
         <v>997</v>
       </c>
       <c r="C12" s="1">
-        <v>-16341536</v>
+        <v>-13605225</v>
       </c>
       <c r="D12" s="1">
-        <v>28482653</v>
+        <v>2894546400000000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>940</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3788,25 +3788,25 @@
         <v>997</v>
       </c>
       <c r="C13" s="1">
-        <v>-17887056</v>
+        <v>-16572489</v>
       </c>
       <c r="D13" s="1">
-        <v>27814847</v>
+        <v>28044475</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3814,19 +3814,25 @@
         <v>997</v>
       </c>
       <c r="C14" s="1">
-        <v>-16291852</v>
+        <v>-16341536</v>
       </c>
       <c r="D14" s="1">
-        <v>28455019</v>
+        <v>28482653</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+        <v>940</v>
+      </c>
+      <c r="G14" t="s">
+        <v>577</v>
+      </c>
+      <c r="H14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3879,10 +3885,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C17" s="1">
@@ -3902,6 +3908,9 @@
       </c>
       <c r="H17" t="s">
         <v>584</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -4090,7 +4099,7 @@
       <c r="A25" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C25" s="1">
@@ -4111,9 +4120,6 @@
       <c r="H25" t="s">
         <v>602</v>
       </c>
-      <c r="I25" t="s">
-        <v>1002</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="8" t="s">
@@ -6599,22 +6605,22 @@
         <v>930</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D122" s="1">
-        <v>42571111</v>
+        <v>4093306</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H122" t="s">
-        <v>751</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
@@ -6625,22 +6631,22 @@
         <v>930</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D123" s="1">
-        <v>39998928</v>
+        <v>42571111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>950</v>
+        <v>242</v>
       </c>
       <c r="G123" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H123" t="s">
-        <v>680</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
@@ -6650,23 +6656,23 @@
       <c r="B124" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C124" s="1">
-        <v>-8377255999999990</v>
+      <c r="C124" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D124" s="1">
-        <v>43302061</v>
+        <v>39998928</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>950</v>
       </c>
       <c r="G124" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H124" t="s">
-        <v>754</v>
+        <v>680</v>
       </c>
       <c r="I124" s="6"/>
     </row>
@@ -6678,22 +6684,22 @@
         <v>930</v>
       </c>
       <c r="C125" s="1">
-        <v>-4386972</v>
+        <v>-8377255999999990</v>
       </c>
       <c r="D125" s="1">
-        <v>39011814</v>
+        <v>43302061</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>954</v>
+        <v>246</v>
       </c>
       <c r="G125" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H125" t="s">
-        <v>645</v>
+        <v>754</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -6704,22 +6710,22 @@
         <v>930</v>
       </c>
       <c r="C126" s="1">
-        <v>-378306</v>
+        <v>-4386972</v>
       </c>
       <c r="D126" s="1">
-        <v>4038306</v>
+        <v>39011814</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>249</v>
+        <v>954</v>
       </c>
       <c r="G126" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H126" t="s">
-        <v>757</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1">
@@ -6730,22 +6736,22 @@
         <v>930</v>
       </c>
       <c r="C127" s="1">
-        <v>-3763351</v>
+        <v>-378306</v>
       </c>
       <c r="D127" s="1">
-        <v>40697159</v>
+        <v>4038306</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G127" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H127" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1">
@@ -6755,23 +6761,23 @@
       <c r="B128" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>237</v>
+      <c r="C128" s="1">
+        <v>-3763351</v>
       </c>
       <c r="D128" s="1">
-        <v>4093306</v>
+        <v>40697159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G128" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="H128" t="s">
-        <v>645</v>
+        <v>759</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1">
@@ -7211,23 +7217,17 @@
       <c r="B146" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>992</v>
+      <c r="C146" s="1">
+        <v>-5695165000000000</v>
+      </c>
+      <c r="D146" s="1">
+        <v>43549761</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>994</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>993</v>
-      </c>
-      <c r="G146" t="s">
-        <v>989</v>
-      </c>
-      <c r="H146" t="s">
-        <v>990</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" customHeight="1">
@@ -7237,17 +7237,23 @@
       <c r="B147" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C147" s="1">
-        <v>-5695165000000000</v>
-      </c>
-      <c r="D147" s="1">
-        <v>43549761</v>
+      <c r="C147" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>992</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>285</v>
+        <v>994</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>993</v>
+      </c>
+      <c r="G147" t="s">
+        <v>989</v>
+      </c>
+      <c r="H147" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" customHeight="1">
@@ -8647,23 +8653,23 @@
       <c r="B207" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C207" s="1">
-        <v>-1114744</v>
+      <c r="C207" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D207" s="1">
-        <v>38896378</v>
+        <v>4151667</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G207" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="H207" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1">
@@ -8674,22 +8680,22 @@
         <v>998</v>
       </c>
       <c r="C208" s="1">
-        <v>-5655556</v>
+        <v>-1114744</v>
       </c>
       <c r="D208" s="1">
-        <v>42589</v>
+        <v>38896378</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>969</v>
+        <v>402</v>
       </c>
       <c r="G208" t="s">
-        <v>832</v>
+        <v>794</v>
       </c>
       <c r="H208" t="s">
-        <v>710</v>
+        <v>831</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1">
@@ -8700,22 +8706,22 @@
         <v>998</v>
       </c>
       <c r="C209" s="1">
-        <v>-3320406</v>
+        <v>-5655556</v>
       </c>
       <c r="D209" s="1">
-        <v>39715822</v>
+        <v>42589</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>405</v>
+        <v>969</v>
       </c>
       <c r="G209" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H209" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15" customHeight="1">
@@ -8725,23 +8731,23 @@
       <c r="B210" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>398</v>
+      <c r="C210" s="1">
+        <v>-3320406</v>
       </c>
       <c r="D210" s="1">
-        <v>4151667</v>
+        <v>39715822</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G210" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="H210" t="s">
-        <v>830</v>
+        <v>643</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15" customHeight="1">
@@ -10663,7 +10669,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H287"/>
+  <autoFilter ref="A1:H287">
+    <sortState ref="A2:H287">
+      <sortCondition ref="E1:E287"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:I284">
     <sortCondition ref="E154"/>
   </sortState>

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1005">
   <si>
     <t>GCFV</t>
   </si>
@@ -3048,7 +3048,10 @@
     <t>Existe en Xplane.es</t>
   </si>
   <si>
-    <t>modificar con wed. Las plataformas flotan</t>
+    <t>modificar con wed. Las plataformas flotan excluir arboles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poner taxiways</t>
   </si>
 </sst>
 </file>
@@ -3460,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3886,7 +3889,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>997</v>
@@ -3914,10 +3917,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C18" s="1">
@@ -3940,10 +3943,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3966,10 +3969,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3992,10 +3995,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4018,10 +4021,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C22" s="1">
@@ -4044,10 +4047,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4148,10 +4151,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C27" s="1">
@@ -4171,6 +4174,9 @@
       </c>
       <c r="H27" t="s">
         <v>606</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1006">
   <si>
     <t>GCFV</t>
   </si>
@@ -3048,10 +3048,13 @@
     <t>Existe en Xplane.es</t>
   </si>
   <si>
-    <t>modificar con wed. Las plataformas flotan excluir arboles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> poner taxiways</t>
+  </si>
+  <si>
+    <t>las plataformas flotan</t>
+  </si>
+  <si>
+    <t>modificar con wed. Las plataformas flotan</t>
   </si>
 </sst>
 </file>
@@ -3464,7 +3467,7 @@
   <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3913,7 +3916,7 @@
         <v>584</v>
       </c>
       <c r="I17" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -4176,14 +4179,14 @@
         <v>606</v>
       </c>
       <c r="I27" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C28" s="1">
@@ -4206,10 +4209,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C29" s="1">
@@ -4230,12 +4233,15 @@
       <c r="H29" t="s">
         <v>610</v>
       </c>
+      <c r="I29" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C30" s="1">
@@ -4284,10 +4290,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C32" s="1">
@@ -4336,10 +4342,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C34" s="1">
@@ -4362,10 +4368,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C35" s="1" t="s">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -11,9 +11,9 @@
     <sheet name="PTES" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$287</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$287</definedName>
-    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$286</definedName>
+    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$286</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1007">
   <si>
     <t>GCFV</t>
   </si>
@@ -3055,6 +3055,9 @@
   </si>
   <si>
     <t>modificar con wed. Las plataformas flotan</t>
+  </si>
+  <si>
+    <t>Tomas</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -4394,10 +4397,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4420,10 +4423,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C37" s="1">
@@ -4446,10 +4449,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4524,10 +4527,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C41" s="1">
@@ -4602,10 +4605,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C44" s="1">
@@ -6088,7 +6091,7 @@
         <v>1000</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>930</v>
+        <v>999</v>
       </c>
       <c r="C101" s="1">
         <v>-2910608</v>
@@ -6117,22 +6120,16 @@
         <v>930</v>
       </c>
       <c r="C102" s="1">
-        <v>-2910608</v>
+        <v>3037748</v>
       </c>
       <c r="D102" s="1">
-        <v>43301097</v>
+        <v>41807429</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>197</v>
-      </c>
-      <c r="G102" t="s">
-        <v>724</v>
-      </c>
-      <c r="H102" t="s">
-        <v>725</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1">
@@ -6143,16 +6140,22 @@
         <v>930</v>
       </c>
       <c r="C103" s="1">
-        <v>3037748</v>
+        <v>-2944944000000000</v>
       </c>
       <c r="D103" s="1">
-        <v>41807429</v>
+        <v>38272231</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="G103" t="s">
+        <v>726</v>
+      </c>
+      <c r="H103" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1">
@@ -6163,22 +6166,22 @@
         <v>930</v>
       </c>
       <c r="C104" s="1">
-        <v>-2944944000000000</v>
+        <v>-3613639</v>
       </c>
       <c r="D104" s="1">
-        <v>38272231</v>
+        <v>42357381</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G104" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H104" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1">
@@ -6189,22 +6192,16 @@
         <v>930</v>
       </c>
       <c r="C105" s="1">
-        <v>-3613639</v>
+        <v>141515</v>
       </c>
       <c r="D105" s="1">
-        <v>42357381</v>
+        <v>38735516</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>203</v>
-      </c>
-      <c r="G105" t="s">
-        <v>728</v>
-      </c>
-      <c r="H105" t="s">
-        <v>729</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1">
@@ -6215,16 +6212,22 @@
         <v>930</v>
       </c>
       <c r="C106" s="1">
-        <v>141515</v>
+        <v>2078464</v>
       </c>
       <c r="D106" s="1">
-        <v>38735516</v>
+        <v>41297078</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="G106" t="s">
+        <v>730</v>
+      </c>
+      <c r="H106" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1">
@@ -6234,23 +6237,17 @@
       <c r="B107" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C107" s="1">
-        <v>2078464</v>
+      <c r="C107" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D107" s="1">
-        <v>41297078</v>
+        <v>39958484</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>207</v>
-      </c>
-      <c r="G107" t="s">
-        <v>730</v>
-      </c>
-      <c r="H107" t="s">
-        <v>731</v>
+        <v>953</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1">
@@ -6260,17 +6257,23 @@
       <c r="B108" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>208</v>
+      <c r="C108" s="1">
+        <v>-6821333</v>
       </c>
       <c r="D108" s="1">
-        <v>39958484</v>
+        <v>3889125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>953</v>
+        <v>211</v>
+      </c>
+      <c r="G108" t="s">
+        <v>732</v>
+      </c>
+      <c r="H108" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1">
@@ -6281,23 +6284,24 @@
         <v>930</v>
       </c>
       <c r="C109" s="1">
-        <v>-6821333</v>
+        <v>2099253</v>
       </c>
       <c r="D109" s="1">
-        <v>3889125</v>
+        <v>41580575</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>960</v>
       </c>
       <c r="G109" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H109" t="s">
-        <v>733</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1">
       <c r="A110" s="8" t="s">
@@ -6307,24 +6311,23 @@
         <v>930</v>
       </c>
       <c r="C110" s="1">
-        <v>2099253</v>
+        <v>1240999997</v>
       </c>
       <c r="D110" s="1">
-        <v>41580575</v>
+        <v>4125050012</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>960</v>
+        <v>214</v>
       </c>
       <c r="G110" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H110" t="s">
-        <v>735</v>
-      </c>
-      <c r="I110" s="2"/>
+        <v>737</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1">
       <c r="A111" s="8" t="s">
@@ -6333,23 +6336,23 @@
       <c r="B111" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C111" s="1">
-        <v>1240999997</v>
+      <c r="C111" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D111" s="1">
-        <v>4125050012</v>
+        <v>41612087041</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G111" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H111" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1">
@@ -6359,23 +6362,23 @@
       <c r="B112" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>215</v>
+      <c r="C112" s="1">
+        <v>2745830119</v>
       </c>
       <c r="D112" s="1">
-        <v>41612087041</v>
+        <v>41687708907</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G112" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H112" t="s">
-        <v>638</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1">
@@ -6386,22 +6389,22 @@
         <v>930</v>
       </c>
       <c r="C113" s="1">
-        <v>2745830119</v>
+        <v>3050785214</v>
       </c>
       <c r="D113" s="1">
-        <v>41687708907</v>
+        <v>4214274399</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G113" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H113" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1">
@@ -6412,22 +6415,22 @@
         <v>930</v>
       </c>
       <c r="C114" s="1">
-        <v>3050785214</v>
+        <v>3179271966</v>
       </c>
       <c r="D114" s="1">
-        <v>4214274399</v>
+        <v>42030882128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G114" t="s">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="H114" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1">
@@ -6438,22 +6441,22 @@
         <v>930</v>
       </c>
       <c r="C115" s="1">
-        <v>3179271966</v>
+        <v>1258978</v>
       </c>
       <c r="D115" s="1">
-        <v>42030882128</v>
+        <v>41973747</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G115" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="H115" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1">
@@ -6464,22 +6467,22 @@
         <v>930</v>
       </c>
       <c r="C116" s="1">
-        <v>1258978</v>
+        <v>1250406057</v>
       </c>
       <c r="D116" s="1">
-        <v>41973747</v>
+        <v>41687636152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G116" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H116" t="s">
-        <v>743</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1">
@@ -6490,22 +6493,22 @@
         <v>930</v>
       </c>
       <c r="C117" s="1">
-        <v>1250406057</v>
+        <v>2610195</v>
       </c>
       <c r="D117" s="1">
-        <v>41687636152</v>
+        <v>4175148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G117" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H117" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1">
@@ -6516,22 +6519,19 @@
         <v>930</v>
       </c>
       <c r="C118" s="1">
-        <v>2610195</v>
+        <v>1467584</v>
       </c>
       <c r="D118" s="1">
-        <v>4175148</v>
+        <v>38930424</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G118" t="s">
-        <v>745</v>
-      </c>
-      <c r="H118" t="s">
-        <v>612</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1">
@@ -6542,19 +6542,22 @@
         <v>930</v>
       </c>
       <c r="C119" s="1">
-        <v>1467584</v>
+        <v>1866667</v>
       </c>
       <c r="D119" s="1">
-        <v>38930424</v>
+        <v>42386389</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G119" t="s">
-        <v>232</v>
+        <v>746</v>
+      </c>
+      <c r="H119" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1">
@@ -6565,22 +6568,22 @@
         <v>930</v>
       </c>
       <c r="C120" s="1">
-        <v>1866667</v>
+        <v>1554382595</v>
       </c>
       <c r="D120" s="1">
-        <v>42386389</v>
+        <v>41746524084</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G120" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H120" t="s">
-        <v>747</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1">
@@ -6590,23 +6593,23 @@
       <c r="B121" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C121" s="1">
-        <v>1554382595</v>
+      <c r="C121" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D121" s="1">
-        <v>41746524084</v>
+        <v>4093306</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G121" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H121" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1">
@@ -6617,22 +6620,22 @@
         <v>930</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D122" s="1">
-        <v>4093306</v>
+        <v>42571111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G122" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H122" t="s">
-        <v>645</v>
+        <v>751</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
@@ -6643,23 +6646,24 @@
         <v>930</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D123" s="1">
-        <v>42571111</v>
+        <v>39998928</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>950</v>
       </c>
       <c r="G123" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H123" t="s">
-        <v>751</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
       <c r="A124" s="8" t="s">
@@ -6668,25 +6672,24 @@
       <c r="B124" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>243</v>
+      <c r="C124" s="1">
+        <v>-8377255999999990</v>
       </c>
       <c r="D124" s="1">
-        <v>39998928</v>
+        <v>43302061</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>950</v>
+        <v>246</v>
       </c>
       <c r="G124" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H124" t="s">
-        <v>680</v>
-      </c>
-      <c r="I124" s="6"/>
+        <v>754</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1">
       <c r="A125" s="8" t="s">
@@ -6696,22 +6699,22 @@
         <v>930</v>
       </c>
       <c r="C125" s="1">
-        <v>-8377255999999990</v>
+        <v>-4386972</v>
       </c>
       <c r="D125" s="1">
-        <v>43302061</v>
+        <v>39011814</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>954</v>
       </c>
       <c r="G125" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H125" t="s">
-        <v>754</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -6722,22 +6725,22 @@
         <v>930</v>
       </c>
       <c r="C126" s="1">
-        <v>-4386972</v>
+        <v>-378306</v>
       </c>
       <c r="D126" s="1">
-        <v>39011814</v>
+        <v>4038306</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F126" t="s">
-        <v>954</v>
+        <v>249</v>
       </c>
       <c r="G126" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H126" t="s">
-        <v>645</v>
+        <v>757</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1">
@@ -6748,22 +6751,22 @@
         <v>930</v>
       </c>
       <c r="C127" s="1">
-        <v>-378306</v>
+        <v>-3763351</v>
       </c>
       <c r="D127" s="1">
-        <v>4038306</v>
+        <v>40697159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G127" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H127" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1">
@@ -6774,22 +6777,22 @@
         <v>930</v>
       </c>
       <c r="C128" s="1">
-        <v>-3763351</v>
+        <v>-3641227931</v>
       </c>
       <c r="D128" s="1">
-        <v>40697159</v>
+        <v>4078462556</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G128" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H128" t="s">
-        <v>759</v>
+        <v>685</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1">
@@ -6800,22 +6803,22 @@
         <v>930</v>
       </c>
       <c r="C129" s="1">
-        <v>-3641227931</v>
+        <v>-3594863</v>
       </c>
       <c r="D129" s="1">
-        <v>4078462556</v>
+        <v>40660187</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F129" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G129" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H129" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1">
@@ -6826,22 +6829,22 @@
         <v>930</v>
       </c>
       <c r="C130" s="1">
-        <v>-3594863</v>
+        <v>-3868236</v>
       </c>
       <c r="D130" s="1">
-        <v>40660187</v>
+        <v>40224194</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>255</v>
+        <v>955</v>
       </c>
       <c r="G130" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H130" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1">
@@ -6852,22 +6855,22 @@
         <v>930</v>
       </c>
       <c r="C131" s="1">
-        <v>-3868236</v>
+        <v>-4023976</v>
       </c>
       <c r="D131" s="1">
-        <v>40224194</v>
+        <v>40397099</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>955</v>
+        <v>258</v>
       </c>
       <c r="G131" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H131" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1">
@@ -6878,22 +6881,22 @@
         <v>930</v>
       </c>
       <c r="C132" s="1">
-        <v>-4023976</v>
+        <v>-6038667</v>
       </c>
       <c r="D132" s="1">
-        <v>40397099</v>
+        <v>3689637</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H132" t="s">
-        <v>596</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1">
@@ -6904,22 +6907,22 @@
         <v>930</v>
       </c>
       <c r="C133" s="1">
-        <v>-6038667</v>
+        <v>-1735161</v>
       </c>
       <c r="D133" s="1">
-        <v>3689637</v>
+        <v>42822075</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G133" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H133" t="s">
-        <v>759</v>
+        <v>617</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1">
@@ -6930,22 +6933,22 @@
         <v>930</v>
       </c>
       <c r="C134" s="1">
-        <v>-1735161</v>
+        <v>-4203017</v>
       </c>
       <c r="D134" s="1">
-        <v>42822075</v>
+        <v>43391144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>951</v>
       </c>
       <c r="G134" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="H134" t="s">
-        <v>617</v>
+        <v>766</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1">
@@ -6956,22 +6959,22 @@
         <v>930</v>
       </c>
       <c r="C135" s="1">
-        <v>-4203017</v>
+        <v>-3151951</v>
       </c>
       <c r="D135" s="1">
-        <v>43391144</v>
+        <v>42953342</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>951</v>
+        <v>265</v>
       </c>
       <c r="G135" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="H135" t="s">
-        <v>766</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1">
@@ -6981,23 +6984,23 @@
       <c r="B136" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C136" s="1">
-        <v>-3151951</v>
+      <c r="C136" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D136" s="1">
-        <v>42953342</v>
+        <v>41736012</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G136" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H136" t="s">
-        <v>608</v>
+        <v>769</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1">
@@ -7007,23 +7010,17 @@
       <c r="B137" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>266</v>
+      <c r="C137" s="1">
+        <v>-3646618999999990</v>
       </c>
       <c r="D137" s="1">
-        <v>41736012</v>
+        <v>40448116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
-      </c>
-      <c r="G137" t="s">
-        <v>768</v>
-      </c>
-      <c r="H137" t="s">
-        <v>769</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1">
@@ -7034,16 +7031,16 @@
         <v>930</v>
       </c>
       <c r="C138" s="1">
-        <v>-3646618999999990</v>
+        <v>-3696968</v>
       </c>
       <c r="D138" s="1">
-        <v>40448116</v>
+        <v>4037681</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1">
@@ -7054,16 +7051,22 @@
         <v>930</v>
       </c>
       <c r="C139" s="1">
-        <v>-3696968</v>
+        <v>-586665988</v>
       </c>
       <c r="D139" s="1">
-        <v>4037681</v>
+        <v>3897825703</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="G139" t="s">
+        <v>770</v>
+      </c>
+      <c r="H139" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1">
@@ -7074,22 +7077,22 @@
         <v>930</v>
       </c>
       <c r="C140" s="1">
-        <v>-586665988</v>
+        <v>-6343584806</v>
       </c>
       <c r="D140" s="1">
-        <v>3897825703</v>
+        <v>39328735247</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G140" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H140" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1">
@@ -7097,25 +7100,25 @@
         <v>1000</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>930</v>
+        <v>998</v>
       </c>
       <c r="C141" s="1">
-        <v>-6343584806</v>
+        <v>-3784863000000000</v>
       </c>
       <c r="D141" s="1">
-        <v>39328735247</v>
+        <v>41933353</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G141" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H141" t="s">
-        <v>772</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1">
@@ -7126,22 +7129,22 @@
         <v>998</v>
       </c>
       <c r="C142" s="1">
-        <v>-3784863000000000</v>
+        <v>-2076562</v>
       </c>
       <c r="D142" s="1">
-        <v>41933353</v>
+        <v>40540283</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G142" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H142" t="s">
-        <v>594</v>
+        <v>721</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1">
@@ -7152,22 +7155,22 @@
         <v>998</v>
       </c>
       <c r="C143" s="1">
-        <v>-2076562</v>
+        <v>-3642593</v>
       </c>
       <c r="D143" s="1">
-        <v>40540283</v>
+        <v>38133102</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G143" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H143" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1">
@@ -7178,22 +7181,22 @@
         <v>998</v>
       </c>
       <c r="C144" s="1">
-        <v>-3642593</v>
+        <v>-5662386</v>
       </c>
       <c r="D144" s="1">
-        <v>38133102</v>
+        <v>39561073</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G144" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H144" t="s">
-        <v>776</v>
+        <v>608</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15" customHeight="1">
@@ -7204,22 +7207,16 @@
         <v>998</v>
       </c>
       <c r="C145" s="1">
-        <v>-5662386</v>
+        <v>-5695165000000000</v>
       </c>
       <c r="D145" s="1">
-        <v>39561073</v>
+        <v>43549761</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
-      </c>
-      <c r="G145" t="s">
-        <v>777</v>
-      </c>
-      <c r="H145" t="s">
-        <v>608</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15" customHeight="1">
@@ -7229,17 +7226,23 @@
       <c r="B146" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C146" s="1">
-        <v>-5695165000000000</v>
-      </c>
-      <c r="D146" s="1">
-        <v>43549761</v>
+      <c r="C146" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>992</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>285</v>
+        <v>994</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>993</v>
+      </c>
+      <c r="G146" t="s">
+        <v>989</v>
+      </c>
+      <c r="H146" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" customHeight="1">
@@ -7249,23 +7252,23 @@
       <c r="B147" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>992</v>
+      <c r="C147" s="1">
+        <v>-44593</v>
+      </c>
+      <c r="D147" s="1">
+        <v>407842</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>994</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G147" t="s">
-        <v>989</v>
+        <v>778</v>
       </c>
       <c r="H147" t="s">
-        <v>990</v>
+        <v>772</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" customHeight="1">
@@ -7276,22 +7279,16 @@
         <v>998</v>
       </c>
       <c r="C148" s="1">
-        <v>-44593</v>
+        <v>-6008629</v>
       </c>
       <c r="D148" s="1">
-        <v>407842</v>
+        <v>37400849</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>985</v>
-      </c>
-      <c r="G148" t="s">
-        <v>778</v>
-      </c>
-      <c r="H148" t="s">
-        <v>772</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15" customHeight="1">
@@ -7302,16 +7299,22 @@
         <v>998</v>
       </c>
       <c r="C149" s="1">
-        <v>-6008629</v>
+        <v>-1362845</v>
       </c>
       <c r="D149" s="1">
-        <v>37400849</v>
+        <v>39564861</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="G149" t="s">
+        <v>779</v>
+      </c>
+      <c r="H149" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15" customHeight="1">
@@ -7322,22 +7325,22 @@
         <v>998</v>
       </c>
       <c r="C150" s="1">
-        <v>-1362845</v>
+        <v>-2675404</v>
       </c>
       <c r="D150" s="1">
-        <v>39564861</v>
+        <v>39218403</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G150" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H150" t="s">
-        <v>608</v>
+        <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15" customHeight="1">
@@ -7348,22 +7351,19 @@
         <v>998</v>
       </c>
       <c r="C151" s="1">
-        <v>-2675404</v>
+        <v>-6219148</v>
       </c>
       <c r="D151" s="1">
-        <v>39218403</v>
+        <v>40568859</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G151" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H151" t="s">
-        <v>740</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15" customHeight="1">
@@ -7373,20 +7373,23 @@
       <c r="B152" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C152" s="1">
-        <v>-6219148</v>
+      <c r="C152" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D152" s="1">
-        <v>40568859</v>
+        <v>37846684</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
+        <v>297</v>
       </c>
       <c r="G152" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H152" t="s">
-        <v>592</v>
+        <v>783</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1">
@@ -7396,23 +7399,23 @@
       <c r="B153" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>295</v>
+      <c r="C153" s="1">
+        <v>-1262237</v>
       </c>
       <c r="D153" s="1">
-        <v>37846684</v>
+        <v>39132954</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>297</v>
+        <v>961</v>
       </c>
       <c r="G153" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H153" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" customHeight="1">
@@ -7423,22 +7426,22 @@
         <v>998</v>
       </c>
       <c r="C154" s="1">
-        <v>-1262237</v>
+        <v>-4238403</v>
       </c>
       <c r="D154" s="1">
-        <v>39132954</v>
+        <v>4088896</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="G154" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H154" t="s">
-        <v>785</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15" customHeight="1">
@@ -7449,19 +7452,19 @@
         <v>998</v>
       </c>
       <c r="C155" s="1">
-        <v>-4238403</v>
+        <v>-2987734000000000</v>
       </c>
       <c r="D155" s="1">
-        <v>4088896</v>
+        <v>41106533</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>975</v>
+        <v>301</v>
       </c>
       <c r="G155" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H155" t="s">
         <v>645</v>
@@ -7475,22 +7478,22 @@
         <v>998</v>
       </c>
       <c r="C156" s="1">
-        <v>-2987734000000000</v>
+        <v>-3731484</v>
       </c>
       <c r="D156" s="1">
-        <v>41106533</v>
+        <v>421343</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G156" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H156" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15" customHeight="1">
@@ -7501,22 +7504,22 @@
         <v>998</v>
       </c>
       <c r="C157" s="1">
-        <v>-3731484</v>
+        <v>-5682948</v>
       </c>
       <c r="D157" s="1">
-        <v>421343</v>
+        <v>42496071</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G157" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H157" t="s">
-        <v>594</v>
+        <v>790</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15" customHeight="1">
@@ -7527,22 +7530,22 @@
         <v>998</v>
       </c>
       <c r="C158" s="1">
-        <v>-5682948</v>
+        <v>-3952934</v>
       </c>
       <c r="D158" s="1">
-        <v>42496071</v>
+        <v>42769524</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G158" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H158" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15" customHeight="1">
@@ -7553,22 +7556,22 @@
         <v>998</v>
       </c>
       <c r="C159" s="1">
-        <v>-3952934</v>
+        <v>-3928924</v>
       </c>
       <c r="D159" s="1">
-        <v>42769524</v>
+        <v>43206532</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G159" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H159" t="s">
-        <v>792</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15" customHeight="1">
@@ -7578,23 +7581,17 @@
       <c r="B160" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C160" s="1">
-        <v>-3928924</v>
+      <c r="C160" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D160" s="1">
-        <v>43206532</v>
+        <v>4000268</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>309</v>
-      </c>
-      <c r="G160" t="s">
-        <v>793</v>
-      </c>
-      <c r="H160" t="s">
-        <v>612</v>
+        <v>952</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15" customHeight="1">
@@ -7604,17 +7601,23 @@
       <c r="B161" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>310</v>
+      <c r="C161" s="1">
+        <v>-3635695</v>
       </c>
       <c r="D161" s="1">
-        <v>4000268</v>
+        <v>37133222</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>952</v>
+        <v>313</v>
+      </c>
+      <c r="G161" t="s">
+        <v>794</v>
+      </c>
+      <c r="H161" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" customHeight="1">
@@ -7625,22 +7628,22 @@
         <v>998</v>
       </c>
       <c r="C162" s="1">
-        <v>-3635695</v>
+        <v>-5739640295000000</v>
       </c>
       <c r="D162" s="1">
-        <v>37133222</v>
+        <v>38172393429</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="F162" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="G162" t="s">
-        <v>794</v>
+        <v>646</v>
       </c>
       <c r="H162" t="s">
-        <v>795</v>
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15" customHeight="1">
@@ -7651,22 +7654,19 @@
         <v>998</v>
       </c>
       <c r="C163" s="1">
-        <v>-5739640295000000</v>
+        <v>1242003</v>
       </c>
       <c r="D163" s="1">
-        <v>38172393429</v>
+        <v>4121533</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="G163" t="s">
-        <v>646</v>
-      </c>
-      <c r="H163" t="s">
-        <v>647</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15" customHeight="1">
@@ -7677,19 +7677,22 @@
         <v>998</v>
       </c>
       <c r="C164" s="1">
-        <v>1242003</v>
+        <v>2760547</v>
       </c>
       <c r="D164" s="1">
-        <v>4121533</v>
+        <v>41900969</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G164" t="s">
-        <v>316</v>
+        <v>796</v>
+      </c>
+      <c r="H164" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
@@ -7700,22 +7703,16 @@
         <v>998</v>
       </c>
       <c r="C165" s="1">
-        <v>2760547</v>
+        <v>-2688834</v>
       </c>
       <c r="D165" s="1">
-        <v>41900969</v>
+        <v>43505167</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
-      </c>
-      <c r="G165" t="s">
-        <v>796</v>
-      </c>
-      <c r="H165" t="s">
-        <v>797</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15" customHeight="1">
@@ -7726,16 +7723,22 @@
         <v>998</v>
       </c>
       <c r="C166" s="1">
-        <v>-2688834</v>
+        <v>-3777356</v>
       </c>
       <c r="D166" s="1">
-        <v>43505167</v>
+        <v>37188731</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>322</v>
+      </c>
+      <c r="G166" t="s">
+        <v>798</v>
+      </c>
+      <c r="H166" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15" customHeight="1">
@@ -7772,22 +7775,16 @@
         <v>998</v>
       </c>
       <c r="C168" s="1">
-        <v>-3777356</v>
+        <v>-26395</v>
       </c>
       <c r="D168" s="1">
-        <v>37188731</v>
+        <v>43477</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
-      </c>
-      <c r="G168" t="s">
-        <v>798</v>
-      </c>
-      <c r="H168" t="s">
-        <v>799</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15" customHeight="1">
@@ -7798,16 +7795,22 @@
         <v>998</v>
       </c>
       <c r="C169" s="1">
-        <v>-26395</v>
+        <v>-3723833</v>
       </c>
       <c r="D169" s="1">
-        <v>43477</v>
+        <v>40294139</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="G169" t="s">
+        <v>800</v>
+      </c>
+      <c r="H169" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" customHeight="1">
@@ -7818,22 +7821,16 @@
         <v>998</v>
       </c>
       <c r="C170" s="1">
-        <v>-3723833</v>
+        <v>-2754961</v>
       </c>
       <c r="D170" s="1">
-        <v>40294139</v>
+        <v>43441749</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
-      </c>
-      <c r="G170" t="s">
-        <v>800</v>
-      </c>
-      <c r="H170" t="s">
-        <v>801</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15" customHeight="1">
@@ -7844,16 +7841,16 @@
         <v>998</v>
       </c>
       <c r="C171" s="1">
-        <v>-2754961</v>
+        <v>-5867583999999990</v>
       </c>
       <c r="D171" s="1">
-        <v>43441749</v>
+        <v>43356252</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15" customHeight="1">
@@ -7864,16 +7861,16 @@
         <v>998</v>
       </c>
       <c r="C172" s="1">
-        <v>-5867583999999990</v>
+        <v>-2842767</v>
       </c>
       <c r="D172" s="1">
-        <v>43356252</v>
+        <v>38751287</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" customHeight="1">
@@ -7884,16 +7881,22 @@
         <v>998</v>
       </c>
       <c r="C173" s="1">
-        <v>-2842767</v>
+        <v>-4674733</v>
       </c>
       <c r="D173" s="1">
-        <v>38751287</v>
+        <v>4317815</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>970</v>
+      </c>
+      <c r="G173" t="s">
+        <v>802</v>
+      </c>
+      <c r="H173" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" customHeight="1">
@@ -7903,23 +7906,23 @@
       <c r="B174" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C174" s="1">
-        <v>-4674733</v>
+      <c r="C174" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D174" s="1">
-        <v>4317815</v>
+        <v>42021603</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>970</v>
+        <v>336</v>
       </c>
       <c r="G174" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H174" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" customHeight="1">
@@ -7929,23 +7932,17 @@
       <c r="B175" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>334</v>
+      <c r="C175" s="1">
+        <v>-3837613</v>
       </c>
       <c r="D175" s="1">
-        <v>42021603</v>
+        <v>40350139</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
-      </c>
-      <c r="G175" t="s">
-        <v>803</v>
-      </c>
-      <c r="H175" t="s">
-        <v>743</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" customHeight="1">
@@ -7956,16 +7953,16 @@
         <v>998</v>
       </c>
       <c r="C176" s="1">
-        <v>-3837613</v>
+        <v>2108078</v>
       </c>
       <c r="D176" s="1">
-        <v>40350139</v>
+        <v>4134594</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1">
@@ -7975,17 +7972,23 @@
       <c r="B177" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C177" s="1">
-        <v>2108078</v>
+      <c r="C177" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="D177" s="1">
-        <v>4134594</v>
+        <v>42080927</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>343</v>
+      </c>
+      <c r="G177" t="s">
+        <v>804</v>
+      </c>
+      <c r="H177" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" customHeight="1">
@@ -7995,23 +7998,17 @@
       <c r="B178" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>341</v>
+      <c r="C178" s="1">
+        <v>-1835029</v>
       </c>
       <c r="D178" s="1">
-        <v>42080927</v>
+        <v>3907083</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
-      </c>
-      <c r="G178" t="s">
-        <v>804</v>
-      </c>
-      <c r="H178" t="s">
-        <v>805</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15" customHeight="1">
@@ -8022,16 +8019,16 @@
         <v>998</v>
       </c>
       <c r="C179" s="1">
-        <v>-1835029</v>
+        <v>2040858</v>
       </c>
       <c r="D179" s="1">
-        <v>3907083</v>
+        <v>41471398</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" customHeight="1">
@@ -8042,16 +8039,22 @@
         <v>998</v>
       </c>
       <c r="C180" s="1">
-        <v>2040858</v>
+        <v>-511639</v>
       </c>
       <c r="D180" s="1">
-        <v>41471398</v>
+        <v>3851667</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>347</v>
+        <v>976</v>
+      </c>
+      <c r="G180" t="s">
+        <v>806</v>
+      </c>
+      <c r="H180" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" customHeight="1">
@@ -8062,22 +8065,16 @@
         <v>998</v>
       </c>
       <c r="C181" s="1">
-        <v>-511639</v>
+        <v>1237893</v>
       </c>
       <c r="D181" s="1">
-        <v>3851667</v>
+        <v>41126257</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>976</v>
-      </c>
-      <c r="G181" t="s">
-        <v>806</v>
-      </c>
-      <c r="H181" t="s">
-        <v>807</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" customHeight="1">
@@ -8097,7 +8094,7 @@
         <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" customHeight="1">
@@ -8108,16 +8105,16 @@
         <v>998</v>
       </c>
       <c r="C183" s="1">
-        <v>1237893</v>
+        <v>1839914</v>
       </c>
       <c r="D183" s="1">
-        <v>41126257</v>
+        <v>41722091</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1">
@@ -8128,16 +8125,16 @@
         <v>998</v>
       </c>
       <c r="C184" s="1">
-        <v>1839914</v>
+        <v>-2151855</v>
       </c>
       <c r="D184" s="1">
-        <v>41722091</v>
+        <v>40073052</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15" customHeight="1">
@@ -8148,16 +8145,22 @@
         <v>998</v>
       </c>
       <c r="C185" s="1">
-        <v>-2151855</v>
+        <v>1373117</v>
       </c>
       <c r="D185" s="1">
-        <v>40073052</v>
+        <v>38872858</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="G185" t="s">
+        <v>808</v>
+      </c>
+      <c r="H185" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1">
@@ -8168,22 +8171,22 @@
         <v>998</v>
       </c>
       <c r="C186" s="1">
-        <v>1373117</v>
+        <v>1651693</v>
       </c>
       <c r="D186" s="1">
-        <v>38872858</v>
+        <v>41587158</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>356</v>
+        <v>987</v>
       </c>
       <c r="F186" t="s">
-        <v>357</v>
+        <v>988</v>
       </c>
       <c r="G186" t="s">
-        <v>808</v>
+        <v>591</v>
       </c>
       <c r="H186" t="s">
-        <v>809</v>
+        <v>592</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15" customHeight="1">
@@ -8194,22 +8197,16 @@
         <v>998</v>
       </c>
       <c r="C187" s="1">
-        <v>1651693</v>
+        <v>-2647089</v>
       </c>
       <c r="D187" s="1">
-        <v>41587158</v>
+        <v>43181744</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>987</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>988</v>
-      </c>
-      <c r="G187" t="s">
-        <v>591</v>
-      </c>
-      <c r="H187" t="s">
-        <v>592</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1">
@@ -8220,16 +8217,22 @@
         <v>998</v>
       </c>
       <c r="C188" s="1">
-        <v>-2647089</v>
+        <v>-3367961</v>
       </c>
       <c r="D188" s="1">
-        <v>43181744</v>
+        <v>38513014</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="G188" t="s">
+        <v>810</v>
+      </c>
+      <c r="H188" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" customHeight="1">
@@ -8240,22 +8243,16 @@
         <v>998</v>
       </c>
       <c r="C189" s="1">
-        <v>-3367961</v>
+        <v>-4948737</v>
       </c>
       <c r="D189" s="1">
-        <v>38513014</v>
+        <v>36511225</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>361</v>
-      </c>
-      <c r="G189" t="s">
-        <v>810</v>
-      </c>
-      <c r="H189" t="s">
-        <v>811</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1">
@@ -8266,16 +8263,16 @@
         <v>998</v>
       </c>
       <c r="C190" s="1">
-        <v>-4948737</v>
+        <v>-4936568</v>
       </c>
       <c r="D190" s="1">
-        <v>36511225</v>
+        <v>36522118</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15" customHeight="1">
@@ -8285,17 +8282,17 @@
       <c r="B191" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C191" s="1">
-        <v>-4936568</v>
+      <c r="C191" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D191" s="1">
-        <v>36522118</v>
+        <v>3948434</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
@@ -8305,17 +8302,17 @@
       <c r="B192" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>366</v>
+      <c r="C192" s="1">
+        <v>2108696</v>
       </c>
       <c r="D192" s="1">
-        <v>3948434</v>
+        <v>41381618</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15" customHeight="1">
@@ -8326,16 +8323,22 @@
         <v>998</v>
       </c>
       <c r="C193" s="1">
-        <v>2108696</v>
+        <v>-6060111</v>
       </c>
       <c r="D193" s="1">
-        <v>41381618</v>
+        <v>36744622</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="G193" t="s">
+        <v>812</v>
+      </c>
+      <c r="H193" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15" customHeight="1">
@@ -8346,22 +8349,16 @@
         <v>998</v>
       </c>
       <c r="C194" s="1">
-        <v>-6060111</v>
+        <v>2821007</v>
       </c>
       <c r="D194" s="1">
-        <v>36744622</v>
+        <v>41998364</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
-      </c>
-      <c r="G194" t="s">
-        <v>812</v>
-      </c>
-      <c r="H194" t="s">
-        <v>813</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15" customHeight="1">
@@ -8372,16 +8369,22 @@
         <v>998</v>
       </c>
       <c r="C195" s="1">
-        <v>2821007</v>
+        <v>-6162499999999990</v>
       </c>
       <c r="D195" s="1">
-        <v>41998364</v>
+        <v>37295</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="G195" t="s">
+        <v>814</v>
+      </c>
+      <c r="H195" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15" customHeight="1">
@@ -8392,22 +8395,16 @@
         <v>998</v>
       </c>
       <c r="C196" s="1">
-        <v>-6162499999999990</v>
+        <v>-4666738</v>
       </c>
       <c r="D196" s="1">
-        <v>37295</v>
+        <v>40664623</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
-      </c>
-      <c r="G196" t="s">
-        <v>814</v>
-      </c>
-      <c r="H196" t="s">
-        <v>815</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15" customHeight="1">
@@ -8418,16 +8415,16 @@
         <v>998</v>
       </c>
       <c r="C197" s="1">
-        <v>-4666738</v>
+        <v>-358178</v>
       </c>
       <c r="D197" s="1">
-        <v>40664623</v>
+        <v>40737553</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15" customHeight="1">
@@ -8438,16 +8435,22 @@
         <v>998</v>
       </c>
       <c r="C198" s="1">
-        <v>-358178</v>
+        <v>-4792404771</v>
       </c>
       <c r="D198" s="1">
-        <v>40737553</v>
+        <v>40605837889</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="G198" t="s">
+        <v>816</v>
+      </c>
+      <c r="H198" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15" customHeight="1">
@@ -8458,22 +8461,22 @@
         <v>998</v>
       </c>
       <c r="C199" s="1">
-        <v>-4792404771</v>
+        <v>-5288138</v>
       </c>
       <c r="D199" s="1">
-        <v>40605837889</v>
+        <v>42450935</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G199" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H199" t="s">
-        <v>592</v>
+        <v>772</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15" customHeight="1">
@@ -8484,22 +8487,22 @@
         <v>998</v>
       </c>
       <c r="C200" s="1">
-        <v>-5288138</v>
+        <v>-4289240688</v>
       </c>
       <c r="D200" s="1">
-        <v>42450935</v>
+        <v>42593231387</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G200" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H200" t="s">
-        <v>772</v>
+        <v>652</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15" customHeight="1">
@@ -8510,22 +8513,22 @@
         <v>998</v>
       </c>
       <c r="C201" s="1">
-        <v>-4289240688</v>
+        <v>-4278926</v>
       </c>
       <c r="D201" s="1">
-        <v>42593231387</v>
+        <v>4285178</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G201" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H201" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15" customHeight="1">
@@ -8536,22 +8539,22 @@
         <v>998</v>
       </c>
       <c r="C202" s="1">
-        <v>-4278926</v>
+        <v>-3533611</v>
       </c>
       <c r="D202" s="1">
-        <v>4285178</v>
+        <v>38745556</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G202" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H202" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15" customHeight="1">
@@ -8561,23 +8564,23 @@
       <c r="B203" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C203" s="1">
-        <v>-3533611</v>
+      <c r="C203" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D203" s="1">
-        <v>38745556</v>
+        <v>37774972</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G203" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H203" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15" customHeight="1">
@@ -8587,23 +8590,23 @@
       <c r="B204" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>391</v>
+      <c r="C204" s="1">
+        <v>-1297067</v>
       </c>
       <c r="D204" s="1">
-        <v>37774972</v>
+        <v>37748439</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G204" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H204" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15" customHeight="1">
@@ -8614,22 +8617,22 @@
         <v>998</v>
       </c>
       <c r="C205" s="1">
-        <v>-1297067</v>
+        <v>-4269728</v>
       </c>
       <c r="D205" s="1">
-        <v>37748439</v>
+        <v>37137688</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G205" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H205" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15" customHeight="1">
@@ -8639,23 +8642,23 @@
       <c r="B206" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C206" s="1">
-        <v>-4269728</v>
+      <c r="C206" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D206" s="1">
-        <v>37137688</v>
+        <v>4151667</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G206" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H206" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15" customHeight="1">
@@ -8665,23 +8668,23 @@
       <c r="B207" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>398</v>
+      <c r="C207" s="1">
+        <v>-1114744</v>
       </c>
       <c r="D207" s="1">
-        <v>4151667</v>
+        <v>38896378</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G207" t="s">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="H207" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1">
@@ -8692,22 +8695,22 @@
         <v>998</v>
       </c>
       <c r="C208" s="1">
-        <v>-1114744</v>
+        <v>-5655556</v>
       </c>
       <c r="D208" s="1">
-        <v>38896378</v>
+        <v>42589</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>969</v>
       </c>
       <c r="G208" t="s">
-        <v>794</v>
+        <v>832</v>
       </c>
       <c r="H208" t="s">
-        <v>831</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1">
@@ -8718,22 +8721,22 @@
         <v>998</v>
       </c>
       <c r="C209" s="1">
-        <v>-5655556</v>
+        <v>-3320406</v>
       </c>
       <c r="D209" s="1">
-        <v>42589</v>
+        <v>39715822</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>969</v>
+        <v>405</v>
       </c>
       <c r="G209" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H209" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15" customHeight="1">
@@ -8741,25 +8744,25 @@
         <v>1000</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C210" s="1">
-        <v>-3320406</v>
+        <v>-34251</v>
       </c>
       <c r="D210" s="1">
-        <v>39715822</v>
+        <v>385057</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G210" t="s">
-        <v>833</v>
+        <v>691</v>
       </c>
       <c r="H210" t="s">
-        <v>643</v>
+        <v>834</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15" customHeight="1">
@@ -8770,22 +8773,22 @@
         <v>999</v>
       </c>
       <c r="C211" s="1">
-        <v>-34251</v>
+        <v>-3560944</v>
       </c>
       <c r="D211" s="1">
-        <v>385057</v>
+        <v>40472231</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G211" t="s">
-        <v>691</v>
+        <v>835</v>
       </c>
       <c r="H211" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15" customHeight="1">
@@ -8796,22 +8799,22 @@
         <v>999</v>
       </c>
       <c r="C212" s="1">
-        <v>-3560944</v>
+        <v>-4499208</v>
       </c>
       <c r="D212" s="1">
-        <v>40472231</v>
+        <v>36674972</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>409</v>
+        <v>982</v>
       </c>
       <c r="G212" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H212" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1">
@@ -8822,22 +8825,22 @@
         <v>999</v>
       </c>
       <c r="C213" s="1">
-        <v>-4499208</v>
+        <v>4218647</v>
       </c>
       <c r="D213" s="1">
-        <v>36674972</v>
+        <v>39862597</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>982</v>
+        <v>942</v>
       </c>
       <c r="G213" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H213" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15" customHeight="1">
@@ -8848,22 +8851,22 @@
         <v>999</v>
       </c>
       <c r="C214" s="1">
-        <v>4218647</v>
+        <v>-43716</v>
       </c>
       <c r="D214" s="1">
-        <v>39862597</v>
+        <v>409105</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>942</v>
+        <v>981</v>
       </c>
       <c r="G214" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H214" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15" customHeight="1">
@@ -8873,23 +8876,17 @@
       <c r="B215" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C215" s="1">
-        <v>-43716</v>
+      <c r="C215" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="D215" s="1">
-        <v>409105</v>
+        <v>40666627</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>981</v>
-      </c>
-      <c r="G215" t="s">
-        <v>841</v>
-      </c>
-      <c r="H215" t="s">
-        <v>842</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15" customHeight="1">
@@ -8899,17 +8896,23 @@
       <c r="B216" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>413</v>
+      <c r="C216" s="1">
+        <v>-5615944</v>
       </c>
       <c r="D216" s="1">
-        <v>40666627</v>
+        <v>37174917</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>415</v>
+        <v>417</v>
+      </c>
+      <c r="G216" t="s">
+        <v>843</v>
+      </c>
+      <c r="H216" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15" customHeight="1">
@@ -8920,22 +8923,22 @@
         <v>999</v>
       </c>
       <c r="C217" s="1">
-        <v>-5615944</v>
+        <v>-1097086</v>
       </c>
       <c r="D217" s="1">
-        <v>37174917</v>
+        <v>37836872</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G217" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H217" t="s">
-        <v>844</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15" customHeight="1">
@@ -8946,22 +8949,22 @@
         <v>999</v>
       </c>
       <c r="C218" s="1">
-        <v>-1097086</v>
+        <v>-5826812</v>
       </c>
       <c r="D218" s="1">
-        <v>37836872</v>
+        <v>43430557</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G218" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H218" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15" customHeight="1">
@@ -8972,22 +8975,22 @@
         <v>999</v>
       </c>
       <c r="C219" s="1">
-        <v>-5826812</v>
+        <v>-4026691</v>
       </c>
       <c r="D219" s="1">
-        <v>43430557</v>
+        <v>40234853</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G219" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H219" t="s">
-        <v>645</v>
+        <v>848</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15" customHeight="1">
@@ -8997,23 +9000,23 @@
       <c r="B220" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C220" s="1">
-        <v>-4026691</v>
+      <c r="C220" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="D220" s="1">
-        <v>40234853</v>
+        <v>38440589</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G220" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H220" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15" customHeight="1">
@@ -9023,23 +9026,23 @@
       <c r="B221" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>424</v>
+      <c r="C221" s="1">
+        <v>-3248217</v>
       </c>
       <c r="D221" s="1">
-        <v>38440589</v>
+        <v>39562428</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G221" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H221" t="s">
-        <v>850</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15" customHeight="1">
@@ -9050,22 +9053,22 @@
         <v>999</v>
       </c>
       <c r="C222" s="1">
-        <v>-3248217</v>
+        <v>-1303793366</v>
       </c>
       <c r="D222" s="1">
-        <v>39562428</v>
+        <v>4266489768</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G222" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H222" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15" customHeight="1">
@@ -9076,22 +9079,22 @@
         <v>999</v>
       </c>
       <c r="C223" s="1">
-        <v>-1303793366</v>
+        <v>-1687932462</v>
       </c>
       <c r="D223" s="1">
-        <v>4266489768</v>
+        <v>42109928168</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G223" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H223" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15" customHeight="1">
@@ -9102,22 +9105,22 @@
         <v>999</v>
       </c>
       <c r="C224" s="1">
-        <v>-1687932462</v>
+        <v>-2028582841</v>
       </c>
       <c r="D224" s="1">
-        <v>42109928168</v>
+        <v>42426155917</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G224" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H224" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15" customHeight="1">
@@ -9127,23 +9130,23 @@
       <c r="B225" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C225" s="1">
-        <v>-2028582841</v>
-      </c>
-      <c r="D225" s="1">
-        <v>42426155917</v>
+      <c r="C225" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G225" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H225" t="s">
-        <v>594</v>
+        <v>856</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="15" customHeight="1">
@@ -9153,23 +9156,17 @@
       <c r="B226" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>435</v>
+      <c r="C226" s="1">
+        <v>3813422000000000</v>
+      </c>
+      <c r="D226" s="1">
+        <v>39997579</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>437</v>
-      </c>
-      <c r="G226" t="s">
-        <v>855</v>
-      </c>
-      <c r="H226" t="s">
-        <v>856</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15" customHeight="1">
@@ -9180,16 +9177,16 @@
         <v>999</v>
       </c>
       <c r="C227" s="1">
-        <v>3813422000000000</v>
+        <v>1419859</v>
       </c>
       <c r="D227" s="1">
-        <v>39997579</v>
+        <v>38918736</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F227" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="15" customHeight="1">
@@ -9200,16 +9197,22 @@
         <v>999</v>
       </c>
       <c r="C228" s="1">
-        <v>1419859</v>
+        <v>-3501944</v>
       </c>
       <c r="D228" s="1">
-        <v>38918736</v>
+        <v>39938611</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F228" t="s">
-        <v>441</v>
+        <v>956</v>
+      </c>
+      <c r="G228" t="s">
+        <v>857</v>
+      </c>
+      <c r="H228" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="15" customHeight="1">
@@ -9220,22 +9223,16 @@
         <v>999</v>
       </c>
       <c r="C229" s="1">
-        <v>-3501944</v>
+        <v>2904021</v>
       </c>
       <c r="D229" s="1">
-        <v>39938611</v>
+        <v>4213214</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>956</v>
-      </c>
-      <c r="G229" t="s">
-        <v>857</v>
-      </c>
-      <c r="H229" t="s">
-        <v>858</v>
+        <v>444</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="15" customHeight="1">
@@ -9246,16 +9243,22 @@
         <v>999</v>
       </c>
       <c r="C230" s="1">
-        <v>2904021</v>
+        <v>-1526333</v>
       </c>
       <c r="D230" s="1">
-        <v>4213214</v>
+        <v>38615069</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="G230" t="s">
+        <v>851</v>
+      </c>
+      <c r="H230" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="15" customHeight="1">
@@ -9266,22 +9269,22 @@
         <v>999</v>
       </c>
       <c r="C231" s="1">
-        <v>-1526333</v>
+        <v>2877422869</v>
       </c>
       <c r="D231" s="1">
-        <v>38615069</v>
+        <v>39680767134</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G231" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="H231" t="s">
-        <v>859</v>
+        <v>610</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="15" customHeight="1">
@@ -9292,22 +9295,22 @@
         <v>999</v>
       </c>
       <c r="C232" s="1">
-        <v>2877422869</v>
+        <v>2738808</v>
       </c>
       <c r="D232" s="1">
-        <v>39680767134</v>
+        <v>39551675</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G232" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H232" t="s">
-        <v>610</v>
+        <v>862</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="15" customHeight="1">
@@ -9318,22 +9321,16 @@
         <v>999</v>
       </c>
       <c r="C233" s="1">
-        <v>2738808</v>
+        <v>218292</v>
       </c>
       <c r="D233" s="1">
-        <v>39551675</v>
+        <v>41364414</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
-      </c>
-      <c r="G233" t="s">
-        <v>861</v>
-      </c>
-      <c r="H233" t="s">
-        <v>862</v>
+        <v>957</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1">
@@ -9344,16 +9341,22 @@
         <v>999</v>
       </c>
       <c r="C234" s="1">
-        <v>218292</v>
+        <v>3101757</v>
       </c>
       <c r="D234" s="1">
-        <v>41364414</v>
+        <v>39907451</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>957</v>
+        <v>962</v>
+      </c>
+      <c r="G234" t="s">
+        <v>864</v>
+      </c>
+      <c r="H234" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15" customHeight="1">
@@ -9364,22 +9367,22 @@
         <v>999</v>
       </c>
       <c r="C235" s="1">
-        <v>3101757</v>
+        <v>-1646331</v>
       </c>
       <c r="D235" s="1">
-        <v>39907451</v>
+        <v>42770039</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>962</v>
+        <v>455</v>
       </c>
       <c r="G235" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H235" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="15" customHeight="1">
@@ -9390,22 +9393,22 @@
         <v>999</v>
       </c>
       <c r="C236" s="1">
-        <v>-1646331</v>
+        <v>-521365</v>
       </c>
       <c r="D236" s="1">
-        <v>42770039</v>
+        <v>37713139</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>455</v>
+        <v>968</v>
       </c>
       <c r="G236" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H236" t="s">
-        <v>867</v>
+        <v>790</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" customHeight="1">
@@ -9416,22 +9419,16 @@
         <v>999</v>
       </c>
       <c r="C237" s="1">
-        <v>-521365</v>
+        <v>115333</v>
       </c>
       <c r="D237" s="1">
-        <v>37713139</v>
+        <v>41184449</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>968</v>
-      </c>
-      <c r="G237" t="s">
-        <v>863</v>
-      </c>
-      <c r="H237" t="s">
-        <v>790</v>
+        <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" customHeight="1">
@@ -9442,16 +9439,16 @@
         <v>999</v>
       </c>
       <c r="C238" s="1">
-        <v>115333</v>
+        <v>-7586722</v>
       </c>
       <c r="D238" s="1">
-        <v>41184449</v>
+        <v>43676465</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15" customHeight="1">
@@ -9462,16 +9459,16 @@
         <v>999</v>
       </c>
       <c r="C239" s="1">
-        <v>-7586722</v>
+        <v>2560917</v>
       </c>
       <c r="D239" s="1">
-        <v>43676465</v>
+        <v>41583927</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" customHeight="1">
@@ -9482,16 +9479,22 @@
         <v>999</v>
       </c>
       <c r="C240" s="1">
-        <v>2560917</v>
+        <v>-4191111</v>
       </c>
       <c r="D240" s="1">
-        <v>41583927</v>
+        <v>38912222</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>461</v>
+        <v>943</v>
+      </c>
+      <c r="G240" t="s">
+        <v>868</v>
+      </c>
+      <c r="H240" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15" customHeight="1">
@@ -9502,22 +9505,22 @@
         <v>999</v>
       </c>
       <c r="C241" s="1">
-        <v>-4191111</v>
+        <v>-1034</v>
       </c>
       <c r="D241" s="1">
-        <v>38912222</v>
+        <v>39473167</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>943</v>
+        <v>464</v>
       </c>
       <c r="G241" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H241" t="s">
-        <v>869</v>
+        <v>645</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" customHeight="1">
@@ -9528,22 +9531,16 @@
         <v>999</v>
       </c>
       <c r="C242" s="1">
-        <v>-1034</v>
+        <v>1852827</v>
       </c>
       <c r="D242" s="1">
-        <v>39473167</v>
+        <v>42105457</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
-      </c>
-      <c r="G242" t="s">
-        <v>870</v>
-      </c>
-      <c r="H242" t="s">
-        <v>645</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15" customHeight="1">
@@ -9554,16 +9551,22 @@
         <v>999</v>
       </c>
       <c r="C243" s="1">
-        <v>1852827</v>
-      </c>
-      <c r="D243" s="1">
-        <v>42105457</v>
+        <v>-123306</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="G243" t="s">
+        <v>871</v>
+      </c>
+      <c r="H243" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15" customHeight="1">
@@ -9574,22 +9577,22 @@
         <v>999</v>
       </c>
       <c r="C244" s="1">
-        <v>-123306</v>
+        <v>-233306</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>469</v>
+        <v>977</v>
       </c>
       <c r="G244" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H244" t="s">
-        <v>772</v>
+        <v>873</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" customHeight="1">
@@ -9600,22 +9603,22 @@
         <v>999</v>
       </c>
       <c r="C245" s="1">
-        <v>-233306</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>470</v>
+        <v>-3970065</v>
+      </c>
+      <c r="D245" s="1">
+        <v>38856507</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>977</v>
+        <v>939</v>
       </c>
       <c r="G245" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H245" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" customHeight="1">
@@ -9626,22 +9629,22 @@
         <v>999</v>
       </c>
       <c r="C246" s="1">
-        <v>-3970065</v>
+        <v>-3247345</v>
       </c>
       <c r="D246" s="1">
-        <v>38856507</v>
+        <v>4086544</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>939</v>
+        <v>474</v>
       </c>
       <c r="G246" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="H246" t="s">
-        <v>875</v>
+        <v>645</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" customHeight="1">
@@ -9652,22 +9655,22 @@
         <v>999</v>
       </c>
       <c r="C247" s="1">
-        <v>-3247345</v>
+        <v>-7470278</v>
       </c>
       <c r="D247" s="1">
-        <v>4086544</v>
+        <v>43116944</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G247" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H247" t="s">
-        <v>645</v>
+        <v>878</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" customHeight="1">
@@ -9678,22 +9681,22 @@
         <v>999</v>
       </c>
       <c r="C248" s="1">
-        <v>-7470278</v>
+        <v>1167172</v>
       </c>
       <c r="D248" s="1">
-        <v>43116944</v>
+        <v>41147389</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G248" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H248" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" customHeight="1">
@@ -9701,25 +9704,25 @@
         <v>1000</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C249" s="1">
-        <v>1167172</v>
+        <v>-6349138999999990</v>
       </c>
       <c r="D249" s="1">
-        <v>41147389</v>
+        <v>36645056</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G249" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H249" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" customHeight="1">
@@ -9730,22 +9733,16 @@
         <v>999</v>
       </c>
       <c r="C250" s="1">
-        <v>-6349138999999990</v>
+        <v>2259225</v>
       </c>
       <c r="D250" s="1">
-        <v>36645056</v>
+        <v>41575264</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
-      </c>
-      <c r="G250" t="s">
-        <v>881</v>
-      </c>
-      <c r="H250" t="s">
-        <v>882</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15" customHeight="1">
@@ -9756,16 +9753,22 @@
         <v>999</v>
       </c>
       <c r="C251" s="1">
-        <v>2259225</v>
+        <v>-7016977966</v>
       </c>
       <c r="D251" s="1">
-        <v>41575264</v>
+        <v>43553944677</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="G251" t="s">
+        <v>883</v>
+      </c>
+      <c r="H251" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" customHeight="1">
@@ -9773,25 +9776,25 @@
         <v>1000</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C252" s="1">
-        <v>-7016977966</v>
+        <v>-5501986</v>
       </c>
       <c r="D252" s="1">
-        <v>43553944677</v>
+        <v>40952117</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>978</v>
       </c>
       <c r="G252" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H252" t="s">
-        <v>608</v>
+        <v>885</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15" customHeight="1">
@@ -9802,22 +9805,22 @@
         <v>999</v>
       </c>
       <c r="C253" s="1">
-        <v>-5501986</v>
+        <v>2702778</v>
       </c>
       <c r="D253" s="1">
-        <v>40952117</v>
+        <v>39598889</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>978</v>
+        <v>487</v>
       </c>
       <c r="G253" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H253" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15" customHeight="1">
@@ -9828,22 +9831,22 @@
         <v>999</v>
       </c>
       <c r="C254" s="1">
-        <v>2702778</v>
+        <v>-4556786</v>
       </c>
       <c r="D254" s="1">
-        <v>39598889</v>
+        <v>40019411</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F254" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G254" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H254" t="s">
-        <v>887</v>
+        <v>590</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15" customHeight="1">
@@ -9854,22 +9857,22 @@
         <v>999</v>
       </c>
       <c r="C255" s="1">
-        <v>-4556786</v>
+        <v>-43131</v>
       </c>
       <c r="D255" s="1">
-        <v>40019411</v>
+        <v>387311</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F255" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G255" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H255" t="s">
-        <v>590</v>
+        <v>890</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15" customHeight="1">
@@ -9880,22 +9883,22 @@
         <v>999</v>
       </c>
       <c r="C256" s="1">
-        <v>-43131</v>
+        <v>-1287097</v>
       </c>
       <c r="D256" s="1">
-        <v>387311</v>
+        <v>42568092</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G256" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="H256" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="15" customHeight="1">
@@ -9906,22 +9909,22 @@
         <v>999</v>
       </c>
       <c r="C257" s="1">
-        <v>-1287097</v>
+        <v>4256914</v>
       </c>
       <c r="D257" s="1">
-        <v>42568092</v>
+        <v>39865579</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G257" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H257" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="15" customHeight="1">
@@ -9932,22 +9935,22 @@
         <v>999</v>
       </c>
       <c r="C258" s="1">
-        <v>4256914</v>
+        <v>-1790611</v>
       </c>
       <c r="D258" s="1">
-        <v>39865579</v>
+        <v>43356519</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>495</v>
+        <v>979</v>
       </c>
       <c r="G258" t="s">
-        <v>893</v>
+        <v>618</v>
       </c>
       <c r="H258" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="15" customHeight="1">
@@ -9958,22 +9961,16 @@
         <v>999</v>
       </c>
       <c r="C259" s="1">
-        <v>-1790611</v>
+        <v>2171331</v>
       </c>
       <c r="D259" s="1">
-        <v>43356519</v>
+        <v>41412886</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>979</v>
-      </c>
-      <c r="G259" t="s">
-        <v>618</v>
-      </c>
-      <c r="H259" t="s">
-        <v>895</v>
+        <v>498</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="15" customHeight="1">
@@ -9984,16 +9981,22 @@
         <v>999</v>
       </c>
       <c r="C260" s="1">
-        <v>2171331</v>
+        <v>-2141572</v>
       </c>
       <c r="D260" s="1">
-        <v>41412886</v>
+        <v>40201906</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>500</v>
+      </c>
+      <c r="G260" t="s">
+        <v>663</v>
+      </c>
+      <c r="H260" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="15" customHeight="1">
@@ -10004,22 +10007,22 @@
         <v>999</v>
       </c>
       <c r="C261" s="1">
-        <v>-2141572</v>
+        <v>-8415144</v>
       </c>
       <c r="D261" s="1">
-        <v>40201906</v>
+        <v>42896333</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G261" t="s">
-        <v>663</v>
+        <v>897</v>
       </c>
       <c r="H261" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="15" customHeight="1">
@@ -10030,22 +10033,22 @@
         <v>999</v>
       </c>
       <c r="C262" s="1">
-        <v>-8415144</v>
+        <v>1409167</v>
       </c>
       <c r="D262" s="1">
-        <v>42896333</v>
+        <v>42338611</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G262" t="s">
-        <v>897</v>
+        <v>691</v>
       </c>
       <c r="H262" t="s">
-        <v>898</v>
+        <v>723</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15" customHeight="1">
@@ -10056,22 +10059,22 @@
         <v>999</v>
       </c>
       <c r="C263" s="1">
-        <v>1409167</v>
+        <v>-6377002</v>
       </c>
       <c r="D263" s="1">
-        <v>42338611</v>
+        <v>43332287</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G263" t="s">
-        <v>691</v>
+        <v>899</v>
       </c>
       <c r="H263" t="s">
-        <v>723</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="15" customHeight="1">
@@ -10081,23 +10084,17 @@
       <c r="B264" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C264" s="1">
-        <v>-6377002</v>
+      <c r="C264" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D264" s="1">
-        <v>43332287</v>
+        <v>42164085</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
-      </c>
-      <c r="G264" t="s">
-        <v>899</v>
-      </c>
-      <c r="H264" t="s">
-        <v>623</v>
+        <v>509</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="15" customHeight="1">
@@ -10107,17 +10104,17 @@
       <c r="B265" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>507</v>
+      <c r="C265" s="1">
+        <v>1242487</v>
       </c>
       <c r="D265" s="1">
-        <v>42164085</v>
+        <v>42518703</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="15" customHeight="1">
@@ -10127,17 +10124,17 @@
       <c r="B266" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C266" s="1">
-        <v>1242487</v>
+      <c r="C266" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="D266" s="1">
-        <v>42518703</v>
+        <v>42696725</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="15" customHeight="1">
@@ -10147,17 +10144,23 @@
       <c r="B267" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>512</v>
+      <c r="C267" s="1">
+        <v>-4921142</v>
       </c>
       <c r="D267" s="1">
-        <v>42696725</v>
+        <v>41531162</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>937</v>
+      </c>
+      <c r="G267" t="s">
+        <v>900</v>
+      </c>
+      <c r="H267" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="15" customHeight="1">
@@ -10168,22 +10171,22 @@
         <v>999</v>
       </c>
       <c r="C268" s="1">
-        <v>-4921142</v>
+        <v>-1218335</v>
       </c>
       <c r="D268" s="1">
-        <v>41531162</v>
+        <v>40410667</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="G268" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H268" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="15" customHeight="1">
@@ -10194,22 +10197,22 @@
         <v>999</v>
       </c>
       <c r="C269" s="1">
-        <v>-1218335</v>
+        <v>-5648681</v>
       </c>
       <c r="D269" s="1">
-        <v>40410667</v>
+        <v>36872021</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="G269" t="s">
-        <v>902</v>
+        <v>587</v>
       </c>
       <c r="H269" t="s">
-        <v>903</v>
+        <v>588</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="15" customHeight="1">
@@ -10220,22 +10223,22 @@
         <v>999</v>
       </c>
       <c r="C270" s="1">
-        <v>-5648681</v>
+        <v>-4789403</v>
       </c>
       <c r="D270" s="1">
-        <v>36872021</v>
+        <v>40247643</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="G270" t="s">
-        <v>587</v>
+        <v>904</v>
       </c>
       <c r="H270" t="s">
-        <v>588</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="15" customHeight="1">
@@ -10246,22 +10249,22 @@
         <v>999</v>
       </c>
       <c r="C271" s="1">
-        <v>-4789403</v>
+        <v>-614145</v>
       </c>
       <c r="D271" s="1">
-        <v>40247643</v>
+        <v>36858661</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>965</v>
+        <v>520</v>
       </c>
       <c r="G271" t="s">
-        <v>904</v>
+        <v>730</v>
       </c>
       <c r="H271" t="s">
-        <v>807</v>
+        <v>645</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="15" customHeight="1">
@@ -10272,22 +10275,22 @@
         <v>999</v>
       </c>
       <c r="C272" s="1">
-        <v>-614145</v>
+        <v>-3458306</v>
       </c>
       <c r="D272" s="1">
-        <v>36858661</v>
+        <v>40486806</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G272" t="s">
-        <v>730</v>
+        <v>905</v>
       </c>
       <c r="H272" t="s">
-        <v>645</v>
+        <v>906</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="15" customHeight="1">
@@ -10298,22 +10301,22 @@
         <v>999</v>
       </c>
       <c r="C273" s="1">
-        <v>-3458306</v>
+        <v>-3592627</v>
       </c>
       <c r="D273" s="1">
-        <v>40486806</v>
+        <v>41203842</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>964</v>
       </c>
       <c r="G273" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H273" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15" customHeight="1">
@@ -10324,22 +10327,22 @@
         <v>999</v>
       </c>
       <c r="C274" s="1">
-        <v>-3592627</v>
+        <v>-1447387934</v>
       </c>
       <c r="D274" s="1">
-        <v>41203842</v>
+        <v>3775357414</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>964</v>
+        <v>525</v>
       </c>
       <c r="G274" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H274" t="s">
-        <v>908</v>
+        <v>594</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="15" customHeight="1">
@@ -10349,23 +10352,23 @@
       <c r="B275" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C275" s="1">
-        <v>-1447387934</v>
+      <c r="C275" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="D275" s="1">
-        <v>3775357414</v>
+        <v>38918674</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G275" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H275" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15" customHeight="1">
@@ -10376,22 +10379,22 @@
         <v>999</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D276" s="1">
-        <v>38918674</v>
+        <v>3975110136</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G276" t="s">
-        <v>910</v>
+        <v>864</v>
       </c>
       <c r="H276" t="s">
-        <v>634</v>
+        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="15" customHeight="1">
@@ -10402,22 +10405,22 @@
         <v>999</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D277" s="1">
-        <v>3975110136</v>
+        <v>39489314</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G277" t="s">
-        <v>864</v>
+        <v>911</v>
       </c>
       <c r="H277" t="s">
-        <v>820</v>
+        <v>912</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="15" customHeight="1">
@@ -10427,23 +10430,23 @@
       <c r="B278" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>532</v>
+      <c r="C278" s="1">
+        <v>-4851861</v>
       </c>
       <c r="D278" s="1">
-        <v>39489314</v>
+        <v>41706</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G278" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H278" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="15" customHeight="1">
@@ -10454,22 +10457,22 @@
         <v>999</v>
       </c>
       <c r="C279" s="1">
-        <v>-4851861</v>
+        <v>-7087994</v>
       </c>
       <c r="D279" s="1">
-        <v>41706</v>
+        <v>43551544</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G279" t="s">
-        <v>913</v>
+        <v>741</v>
       </c>
       <c r="H279" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="15" customHeight="1">
@@ -10479,23 +10482,23 @@
       <c r="B280" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C280" s="1">
-        <v>-7087994</v>
+      <c r="C280" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D280" s="1">
-        <v>43551544</v>
+        <v>41791752</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>980</v>
       </c>
       <c r="G280" t="s">
-        <v>741</v>
+        <v>916</v>
       </c>
       <c r="H280" t="s">
-        <v>915</v>
+        <v>805</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="15" customHeight="1">
@@ -10505,23 +10508,23 @@
       <c r="B281" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>539</v>
+      <c r="C281" s="1">
+        <v>-2724469</v>
       </c>
       <c r="D281" s="1">
-        <v>41791752</v>
+        <v>42882836</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>980</v>
+        <v>542</v>
       </c>
       <c r="G281" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H281" t="s">
-        <v>805</v>
+        <v>918</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15" customHeight="1">
@@ -10532,22 +10535,22 @@
         <v>999</v>
       </c>
       <c r="C282" s="1">
-        <v>-2724469</v>
+        <v>-8627528</v>
       </c>
       <c r="D282" s="1">
-        <v>42882836</v>
+        <v>42229119</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G282" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H282" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1">
@@ -10558,22 +10561,22 @@
         <v>999</v>
       </c>
       <c r="C283" s="1">
-        <v>-8627528</v>
+        <v>-3820006</v>
       </c>
       <c r="D283" s="1">
-        <v>42229119</v>
+        <v>43427064</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G283" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H283" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="15" customHeight="1">
@@ -10581,25 +10584,25 @@
         <v>1000</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="C284" s="1">
-        <v>-3820006</v>
+        <v>-1041553</v>
       </c>
       <c r="D284" s="1">
-        <v>43427064</v>
+        <v>41666242</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G284" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H284" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="15" customHeight="1">
@@ -10610,22 +10613,22 @@
         <v>999</v>
       </c>
       <c r="C285" s="1">
-        <v>-1041553</v>
+        <v>-5898914</v>
       </c>
       <c r="D285" s="1">
-        <v>41666242</v>
+        <v>37417922</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G285" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H285" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15" customHeight="1">
@@ -10635,53 +10638,27 @@
       <c r="B286" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C286" s="1">
-        <v>-5898914</v>
+      <c r="C286" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="D286" s="1">
-        <v>37417922</v>
+        <v>42796297</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G286" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H286" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1">
-      <c r="A287" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D287" s="1">
-        <v>42796297</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F287" t="s">
-        <v>553</v>
-      </c>
-      <c r="G287" t="s">
-        <v>927</v>
-      </c>
-      <c r="H287" t="s">
         <v>675</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H287">
+  <autoFilter ref="A1:H286">
     <sortState ref="A2:H287">
       <sortCondition ref="E1:E287"/>
     </sortState>
@@ -10713,7 +10690,7 @@
         <v>931</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTBLANK(AD!B2:B287)</f>
+        <f>COUNTBLANK(AD!B2:B286)</f>
         <v>0</v>
       </c>
     </row>
@@ -10722,7 +10699,7 @@
         <v>932</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA1")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"OK")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"SERGIO")</f>
+        <f>COUNTIFS(AD!B2:B286,"BETA1")-COUNTIFS(AD!B2:B286,"BETA1",AD!A2:A286,"OK")-COUNTIFS(AD!B2:B286,"BETA1",AD!A2:A286,"SERGIO")</f>
         <v>0</v>
       </c>
     </row>
@@ -10731,7 +10708,7 @@
         <v>933</v>
       </c>
       <c r="B3" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA2")-COUNTIFS(AD!B2:B287,"BETA2",AD!A2:A287,"OK")</f>
+        <f>COUNTIFS(AD!B2:B286,"BETA2")-COUNTIFS(AD!B2:B286,"BETA2",AD!A2:A286,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -10740,7 +10717,7 @@
         <v>934</v>
       </c>
       <c r="B4" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA3")-COUNTIFS(AD!B2:B287,"BETA3",AD!A2:A287,"OK")</f>
+        <f>COUNTIFS(AD!B2:B286,"BETA3")-COUNTIFS(AD!B2:B286,"BETA3",AD!A2:A286,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -10750,7 +10727,7 @@
         <v>935</v>
       </c>
       <c r="B6" s="3">
-        <f>COUNTIFS(AD!A2:A287,"OK" )+COUNTIFS(AD!A2:A287,"SERGIO" )</f>
+        <f>COUNTIFS(AD!A2:A286,"OK" )+COUNTIFS(AD!A2:A286,"SERGIO" )</f>
         <v>0</v>
       </c>
     </row>

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1008">
   <si>
     <t>GCFV</t>
   </si>
@@ -3058,6 +3058,9 @@
   </si>
   <si>
     <t>Tomas</t>
+  </si>
+  <si>
+    <t>En xplane.es</t>
   </si>
 </sst>
 </file>
@@ -3469,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -4734,7 +4737,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:9" ht="15" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+    <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+    <row r="51" spans="1:9" ht="15" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+    <row r="52" spans="1:9" ht="15" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+    <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+    <row r="54" spans="1:9" ht="15" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+    <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4915,8 +4918,11 @@
       <c r="H55" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+      <c r="I55" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+    <row r="57" spans="1:9" ht="15" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+    <row r="58" spans="1:9" ht="15" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>1000</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+    <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+    <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
+    <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
+    <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
+    <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
+    <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5307,10 +5313,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C71" s="1">
@@ -5333,10 +5339,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C72" s="1">
@@ -5437,10 +5443,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C76" s="1">
@@ -5463,10 +5469,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C77" s="1">
@@ -5489,10 +5495,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C78" s="1">
@@ -5515,10 +5521,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C79" s="1">
@@ -5541,10 +5547,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5593,10 +5599,10 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C82" s="1">
@@ -5645,10 +5651,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5671,10 +5677,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C85" s="1">
@@ -5723,10 +5729,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C87" s="1">
@@ -5749,10 +5755,10 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1">
-      <c r="A88" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C88" s="1">
@@ -5775,10 +5781,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C89" s="1">
@@ -5801,10 +5807,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C90" s="1">
@@ -5827,10 +5833,10 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C91" s="1">
@@ -7096,10 +7102,10 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="A141" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C141" s="1">
@@ -7122,10 +7128,10 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="A142" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C142" s="1">
@@ -7148,10 +7154,10 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B143" s="7" t="s">
+      <c r="A143" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C143" s="1">
@@ -7174,10 +7180,10 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1">
-      <c r="A144" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="A144" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C144" s="1">
@@ -7900,10 +7906,10 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B174" s="7" t="s">
+      <c r="A174" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -7966,10 +7972,10 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1">
-      <c r="A177" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="A177" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -8480,11 +8486,11 @@
       </c>
     </row>
     <row r="200" spans="1:8" ht="15" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>998</v>
+      <c r="A200" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="C200" s="1">
         <v>-4289240688</v>
@@ -8558,10 +8564,10 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="15" customHeight="1">
-      <c r="A203" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B203" s="7" t="s">
+      <c r="A203" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -8662,10 +8668,10 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="15" customHeight="1">
-      <c r="A207" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B207" s="7" t="s">
+      <c r="A207" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C207" s="1">
@@ -8688,10 +8694,10 @@
       </c>
     </row>
     <row r="208" spans="1:8" ht="15" customHeight="1">
-      <c r="A208" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B208" s="7" t="s">
+      <c r="A208" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C208" s="1">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1009">
   <si>
     <t>GCFV</t>
   </si>
@@ -3061,6 +3061,9 @@
   </si>
   <si>
     <t>En xplane.es</t>
+  </si>
+  <si>
+    <t>https://mega.co.nz/#F!Dl4gjLba!dGxOtwNQhPBqc2dYeVDxkA</t>
   </si>
 </sst>
 </file>
@@ -3472,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3486,7 +3489,7 @@
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
@@ -6747,6 +6750,9 @@
       </c>
       <c r="H126" t="s">
         <v>757</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -3171,7 +3171,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3475,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -4663,10 +4680,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4741,10 +4758,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C49" s="1">
@@ -4767,10 +4784,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C50" s="1">
@@ -6070,10 +6087,10 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C100" s="1">
@@ -6286,10 +6303,10 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C109" s="1">
@@ -6339,10 +6356,10 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -6365,10 +6382,10 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C112" s="1">
@@ -6417,10 +6434,10 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1">
-      <c r="A114" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C114" s="1">
@@ -6469,10 +6486,10 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C116" s="1">
@@ -6495,10 +6512,10 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C117" s="1">
@@ -6570,10 +6587,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C120" s="1">
@@ -6648,10 +6665,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6701,10 +6718,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C125" s="1">
@@ -6727,10 +6744,10 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C126" s="1">
@@ -6782,10 +6799,10 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C128" s="1">
@@ -6834,10 +6851,10 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1">
-      <c r="A130" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="A130" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C130" s="1">
@@ -6860,10 +6877,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="A131" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C131" s="1">
@@ -6912,10 +6929,10 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="A133" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C133" s="1">
@@ -10671,8 +10688,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H286">
-    <sortState ref="A2:H287">
-      <sortCondition ref="E1:E287"/>
+    <sortState ref="A2:H286">
+      <sortCondition ref="E1:E286"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:I284">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -3171,24 +3171,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3492,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -7249,10 +7232,10 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="15" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="A146" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -7321,10 +7304,10 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="15" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="A149" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C149" s="1">
@@ -7373,10 +7356,10 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="15" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C151" s="1">
@@ -7903,10 +7886,10 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" customHeight="1">
-      <c r="A173" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B173" s="7" t="s">
+      <c r="A173" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C173" s="1">
@@ -8061,10 +8044,10 @@
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" customHeight="1">
-      <c r="A180" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B180" s="7" t="s">
+      <c r="A180" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C180" s="1">
@@ -8193,10 +8176,10 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1">
-      <c r="A186" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B186" s="7" t="s">
+      <c r="A186" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C186" s="1">
@@ -8239,10 +8222,10 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1">
-      <c r="A188" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B188" s="7" t="s">
+      <c r="A188" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C188" s="1">
@@ -8391,10 +8374,10 @@
       </c>
     </row>
     <row r="195" spans="1:8" ht="15" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B195" s="7" t="s">
+      <c r="A195" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C195" s="1">

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -11,9 +11,9 @@
     <sheet name="PTES" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$286</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$286</definedName>
-    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$287</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$287</definedName>
+    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$287</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1065">
   <si>
     <t>GCFV</t>
   </si>
@@ -3045,9 +3045,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>Existe en Xplane.es</t>
-  </si>
-  <si>
     <t xml:space="preserve"> poner taxiways</t>
   </si>
   <si>
@@ -3060,17 +3057,188 @@
     <t>Tomas</t>
   </si>
   <si>
-    <t>En xplane.es</t>
-  </si>
-  <si>
     <t>https://mega.co.nz/#F!Dl4gjLba!dGxOtwNQhPBqc2dYeVDxkA</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=21773</t>
+  </si>
+  <si>
+    <t>https://mega.co.nz/#%21LRYSFSoQ%21aX6WxTyh10YwNeoSOAsa7RWo79ABNTxqII8vlnLh9BY</t>
+  </si>
+  <si>
+    <t>https://dl.dropbox.com/u/59143574/escenarios/LECD_provisional.7z</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=44</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=41</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=128</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=140</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=139</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=138</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=136</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=132</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=131</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=129</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=126</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=106</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=63</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=43</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=113</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=42</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=117</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=37</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=46</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=47</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=21293</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=49</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=50</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=51</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=55</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=108</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=110</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=111</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=112</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=116</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=118</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=24419</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=25186</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=24978</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=24386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=119 </t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=24365</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=24348</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23669</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23564</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23504</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23471</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23440</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=22650</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=21664</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=21593</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=18382</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=23513</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=18361</t>
+  </si>
+  <si>
+    <t>LEJY</t>
+  </si>
+  <si>
+    <t>http://www.x-plane.es/modules/TDMDownloads/singlefile.php?cid=1&amp;lid=133</t>
+  </si>
+  <si>
+    <t>Convertido por Javier Rollon Airhsipania X (a rematar por Luis</t>
+  </si>
+  <si>
+    <t>http://forums.x-plane.org/index.php?app=downloads&amp;showfile=16000</t>
+  </si>
+  <si>
+    <t>http://www.xpfr.org/?body=scene_accueil&amp;sc=13</t>
+  </si>
+  <si>
+    <t>Hay que cambiarlo por LE34 debido a la innauguracion de Castellon LECH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3086,6 +3254,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -3131,10 +3306,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3167,8 +3346,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3473,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="C112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3489,10 +3673,11 @@
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="9" max="9" width="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>996</v>
       </c>
@@ -3518,7 +3703,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1001</v>
       </c>
@@ -3543,15 +3728,15 @@
       <c r="H2" t="s">
         <v>701</v>
       </c>
-      <c r="I2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="I2" s="13" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C3" s="1">
@@ -3572,12 +3757,15 @@
       <c r="H3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="I3" s="13" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C4" s="1">
@@ -3598,8 +3786,11 @@
       <c r="H4" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="I4" s="13" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3619,11 +3810,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C6" s="1">
@@ -3644,8 +3835,11 @@
       <c r="H6" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="I6" s="13" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3665,11 +3859,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C8" s="1">
@@ -3690,12 +3884,15 @@
       <c r="H8" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="I8" s="13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C9" s="1">
@@ -3716,12 +3913,15 @@
       <c r="H9" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="I9" s="13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C10" s="1">
@@ -3743,7 +3943,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3769,11 +3969,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C12" s="1">
@@ -3794,12 +3994,18 @@
       <c r="H12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="I12" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C13" s="1">
@@ -3820,12 +4026,15 @@
       <c r="H13" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="I13" s="13" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C14" s="1">
@@ -3846,8 +4055,11 @@
       <c r="H14" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="I14" s="13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3873,7 +4085,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>1000</v>
       </c>
@@ -3925,7 +4137,7 @@
         <v>584</v>
       </c>
       <c r="I17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -4031,6 +4243,9 @@
       <c r="H21" t="s">
         <v>594</v>
       </c>
+      <c r="I21" s="13" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="10" t="s">
@@ -4188,7 +4403,7 @@
         <v>606</v>
       </c>
       <c r="I27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
@@ -4243,7 +4458,7 @@
         <v>610</v>
       </c>
       <c r="I29" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
@@ -4585,10 +4800,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C43" s="1">
@@ -4793,10 +5008,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>997</v>
       </c>
       <c r="C51" s="1">
@@ -4819,10 +5034,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C52" s="1">
@@ -4843,6 +5058,9 @@
       <c r="H52" t="s">
         <v>590</v>
       </c>
+      <c r="I52" s="13" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="8" t="s">
@@ -4897,10 +5115,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>997</v>
       </c>
       <c r="C55" s="1">
@@ -4921,8 +5139,8 @@
       <c r="H55" t="s">
         <v>634</v>
       </c>
-      <c r="I55" t="s">
-        <v>1007</v>
+      <c r="I55" s="13" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1">
@@ -5575,7 +5793,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1">
+    <row r="81" spans="1:10" ht="15" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5601,7 +5819,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1">
+    <row r="82" spans="1:10" ht="15" customHeight="1">
       <c r="A82" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5627,7 +5845,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1">
+    <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5653,7 +5871,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1">
+    <row r="84" spans="1:10" ht="15" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5679,7 +5897,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+    <row r="85" spans="1:10" ht="15" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5705,11 +5923,11 @@
         <v>697</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B86" s="7" t="s">
+    <row r="86" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A86" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C86" s="1">
@@ -5731,7 +5949,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1">
+    <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="A87" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5757,7 +5975,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+    <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5783,7 +6001,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
+    <row r="89" spans="1:10" ht="15" customHeight="1">
       <c r="A89" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5809,7 +6027,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1">
+    <row r="90" spans="1:10" ht="15" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5835,7 +6053,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1">
+    <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>1001</v>
       </c>
@@ -5861,7 +6079,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1">
+    <row r="92" spans="1:10" ht="15" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>1000</v>
       </c>
@@ -5887,11 +6105,11 @@
         <v>708</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B93" s="7" t="s">
+    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="A93" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5912,12 +6130,18 @@
       <c r="H93" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="I93" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1">
+      <c r="A94" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>930</v>
       </c>
       <c r="C94" s="1">
@@ -5938,12 +6162,15 @@
       <c r="H94" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="I94" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
+      <c r="A95" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C95" s="1">
@@ -5964,12 +6191,15 @@
       <c r="H95" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
-      <c r="A96" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="I95" s="13" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
+      <c r="A96" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>930</v>
       </c>
       <c r="C96" s="1">
@@ -5990,12 +6220,15 @@
       <c r="H96" t="s">
         <v>716</v>
       </c>
+      <c r="I96" s="13" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -6018,10 +6251,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C98" s="1">
@@ -6044,10 +6277,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C99" s="1">
@@ -6096,10 +6329,10 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>999</v>
       </c>
       <c r="C101" s="1">
@@ -6120,6 +6353,9 @@
       <c r="H101" t="s">
         <v>725</v>
       </c>
+      <c r="I101" s="13" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1">
       <c r="A102" s="8" t="s">
@@ -6142,10 +6378,10 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C103" s="1">
@@ -6168,10 +6404,10 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C104" s="1">
@@ -6192,6 +6428,9 @@
       <c r="H104" t="s">
         <v>729</v>
       </c>
+      <c r="I104" s="13" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1">
       <c r="A105" s="8" t="s">
@@ -6214,10 +6453,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>930</v>
       </c>
       <c r="C106" s="1">
@@ -6238,6 +6477,9 @@
       <c r="H106" t="s">
         <v>731</v>
       </c>
+      <c r="I106" s="13" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1">
       <c r="A107" s="8" t="s">
@@ -6260,10 +6502,10 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C108" s="1">
@@ -6390,7 +6632,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1">
+    <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6416,7 +6658,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1">
+    <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6442,7 +6684,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1">
+    <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6468,7 +6710,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1">
+    <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6494,7 +6736,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1">
+    <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6520,7 +6762,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1">
+    <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6543,11 +6785,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="1:10" ht="15" customHeight="1">
+      <c r="A119" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C119" s="1">
@@ -6568,8 +6810,11 @@
       <c r="H119" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1">
+      <c r="I119" s="13" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6595,7 +6840,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1">
+    <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6620,12 +6865,15 @@
       <c r="H121" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="I121" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" customHeight="1">
+      <c r="A122" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6646,8 +6894,11 @@
       <c r="H122" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1">
+      <c r="I122" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6674,11 +6925,11 @@
       </c>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B124" s="7" t="s">
+    <row r="124" spans="1:10" ht="15" customHeight="1">
+      <c r="A124" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C124" s="1">
@@ -6699,8 +6950,14 @@
       <c r="H124" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1">
+      <c r="I124" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6726,7 +6983,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1">
+    <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6751,11 +7008,11 @@
       <c r="H126" t="s">
         <v>757</v>
       </c>
-      <c r="I126" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1">
+      <c r="I126" s="13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6781,7 +7038,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1">
+    <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6807,11 +7064,11 @@
         <v>685</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B129" s="7" t="s">
+    <row r="129" spans="1:9" ht="15" customHeight="1">
+      <c r="A129" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C129" s="1">
@@ -6833,7 +7090,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1">
+    <row r="130" spans="1:9" ht="15" customHeight="1">
       <c r="A130" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6859,7 +7116,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1">
+    <row r="131" spans="1:9" ht="15" customHeight="1">
       <c r="A131" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6885,7 +7142,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1">
+    <row r="132" spans="1:9" ht="15" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6911,7 +7168,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1">
+    <row r="133" spans="1:9" ht="15" customHeight="1">
       <c r="A133" s="10" t="s">
         <v>1001</v>
       </c>
@@ -6937,11 +7194,11 @@
         <v>617</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1">
-      <c r="A134" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B134" s="7" t="s">
+    <row r="134" spans="1:9" ht="15" customHeight="1">
+      <c r="A134" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C134" s="1">
@@ -6963,7 +7220,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1">
+    <row r="135" spans="1:9" ht="15" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>1000</v>
       </c>
@@ -6989,11 +7246,11 @@
         <v>608</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1">
-      <c r="A136" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B136" s="7" t="s">
+    <row r="136" spans="1:9" ht="15" customHeight="1">
+      <c r="A136" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>930</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -7014,8 +7271,11 @@
       <c r="H136" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1">
+      <c r="I136" s="13" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7035,7 +7295,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1">
+    <row r="138" spans="1:9" ht="15" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7055,11 +7315,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1">
-      <c r="A139" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="139" spans="1:9" ht="15" customHeight="1">
+      <c r="A139" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>930</v>
       </c>
       <c r="C139" s="1">
@@ -7081,7 +7341,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1">
+    <row r="140" spans="1:9" ht="15" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7107,7 +7367,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1">
+    <row r="141" spans="1:9" ht="15" customHeight="1">
       <c r="A141" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7133,7 +7393,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1">
+    <row r="142" spans="1:9" ht="15" customHeight="1">
       <c r="A142" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7159,7 +7419,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1">
+    <row r="143" spans="1:9" ht="15" customHeight="1">
       <c r="A143" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7185,7 +7445,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1">
+    <row r="144" spans="1:9" ht="15" customHeight="1">
       <c r="A144" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7211,7 +7471,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1">
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7231,7 +7491,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1">
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7257,7 +7517,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1">
+    <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7283,7 +7543,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1">
+    <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7303,7 +7563,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1">
+    <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7329,7 +7589,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1">
+    <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7355,7 +7615,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1">
+    <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7378,7 +7638,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1">
+    <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7404,7 +7664,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1">
+    <row r="153" spans="1:9" ht="15" customHeight="1">
       <c r="A153" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7430,11 +7690,11 @@
         <v>785</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="154" spans="1:9" ht="15" customHeight="1">
+      <c r="A154" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>998</v>
       </c>
       <c r="C154" s="1">
@@ -7455,8 +7715,11 @@
       <c r="H154" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1">
+      <c r="I154" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7482,7 +7745,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1">
+    <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7508,7 +7771,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1">
+    <row r="157" spans="1:9" ht="15" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7534,7 +7797,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1">
+    <row r="158" spans="1:9" ht="15" customHeight="1">
       <c r="A158" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7560,7 +7823,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1">
+    <row r="159" spans="1:9" ht="15" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7586,7 +7849,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1">
+    <row r="160" spans="1:9" ht="15" customHeight="1">
       <c r="A160" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7606,11 +7869,11 @@
         <v>952</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1">
-      <c r="A161" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B161" s="7" t="s">
+    <row r="161" spans="1:10" ht="15" customHeight="1">
+      <c r="A161" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C161" s="1">
@@ -7632,7 +7895,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1">
+    <row r="162" spans="1:10" ht="15" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7658,7 +7921,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1">
+    <row r="163" spans="1:10" ht="15" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7681,11 +7944,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1">
-      <c r="A164" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B164" s="7" t="s">
+    <row r="164" spans="1:10" ht="15" customHeight="1">
+      <c r="A164" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>998</v>
       </c>
       <c r="C164" s="1">
@@ -7706,8 +7969,14 @@
       <c r="H164" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1">
+      <c r="I164" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7727,11 +7996,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B166" s="7" t="s">
+    <row r="166" spans="1:10" ht="15" customHeight="1">
+      <c r="A166" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>998</v>
       </c>
       <c r="C166" s="1">
@@ -7752,8 +8021,11 @@
       <c r="H166" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1">
+      <c r="I166" s="13" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7779,7 +8051,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1">
+    <row r="168" spans="1:10" ht="15" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7799,7 +8071,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1">
+    <row r="169" spans="1:10" ht="15" customHeight="1">
       <c r="A169" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7825,7 +8097,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1">
+    <row r="170" spans="1:10" ht="15" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7845,7 +8117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1">
+    <row r="171" spans="1:10" ht="15" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7865,7 +8137,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1">
+    <row r="172" spans="1:10" ht="15" customHeight="1">
       <c r="A172" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7885,7 +8157,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1">
+    <row r="173" spans="1:10" ht="15" customHeight="1">
       <c r="A173" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7911,7 +8183,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1">
+    <row r="174" spans="1:10" ht="15" customHeight="1">
       <c r="A174" s="10" t="s">
         <v>1001</v>
       </c>
@@ -7937,7 +8209,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1">
+    <row r="175" spans="1:10" ht="15" customHeight="1">
       <c r="A175" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7957,7 +8229,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1">
+    <row r="176" spans="1:10" ht="15" customHeight="1">
       <c r="A176" s="8" t="s">
         <v>1000</v>
       </c>
@@ -7977,7 +8249,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" customHeight="1">
+    <row r="177" spans="1:9" ht="15" customHeight="1">
       <c r="A177" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8003,7 +8275,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" customHeight="1">
+    <row r="178" spans="1:9" ht="15" customHeight="1">
       <c r="A178" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8023,7 +8295,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15" customHeight="1">
+    <row r="179" spans="1:9" ht="15" customHeight="1">
       <c r="A179" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8043,7 +8315,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" customHeight="1">
+    <row r="180" spans="1:9" ht="15" customHeight="1">
       <c r="A180" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8069,7 +8341,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15" customHeight="1">
+    <row r="181" spans="1:9" ht="15" customHeight="1">
       <c r="A181" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8089,7 +8361,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15" customHeight="1">
+    <row r="182" spans="1:9" ht="15" customHeight="1">
       <c r="A182" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8109,7 +8381,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" customHeight="1">
+    <row r="183" spans="1:9" ht="15" customHeight="1">
       <c r="A183" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8129,7 +8401,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" customHeight="1">
+    <row r="184" spans="1:9" ht="15" customHeight="1">
       <c r="A184" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8149,11 +8421,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15" customHeight="1">
-      <c r="A185" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B185" s="7" t="s">
+    <row r="185" spans="1:9" ht="15" customHeight="1">
+      <c r="A185" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>998</v>
       </c>
       <c r="C185" s="1">
@@ -8174,8 +8446,11 @@
       <c r="H185" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="15" customHeight="1">
+      <c r="I185" s="13" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" customHeight="1">
       <c r="A186" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8201,7 +8476,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15" customHeight="1">
+    <row r="187" spans="1:9" ht="15" customHeight="1">
       <c r="A187" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8221,7 +8496,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15" customHeight="1">
+    <row r="188" spans="1:9" ht="15" customHeight="1">
       <c r="A188" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8247,7 +8522,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15" customHeight="1">
+    <row r="189" spans="1:9" ht="15" customHeight="1">
       <c r="A189" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8267,7 +8542,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15" customHeight="1">
+    <row r="190" spans="1:9" ht="15" customHeight="1">
       <c r="A190" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8287,7 +8562,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15" customHeight="1">
+    <row r="191" spans="1:9" ht="15" customHeight="1">
       <c r="A191" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8307,7 +8582,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
+    <row r="192" spans="1:9" ht="15" customHeight="1">
       <c r="A192" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8327,7 +8602,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15" customHeight="1">
+    <row r="193" spans="1:9" ht="15" customHeight="1">
       <c r="A193" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8353,7 +8628,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15" customHeight="1">
+    <row r="194" spans="1:9" ht="15" customHeight="1">
       <c r="A194" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8373,7 +8648,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15" customHeight="1">
+    <row r="195" spans="1:9" ht="15" customHeight="1">
       <c r="A195" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8399,27 +8674,21 @@
         <v>815</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15" customHeight="1">
-      <c r="A196" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B196" s="7" t="s">
+    <row r="196" spans="1:9" ht="15" customHeight="1">
+      <c r="A196" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C196" s="1">
-        <v>-4666738</v>
-      </c>
-      <c r="D196" s="1">
-        <v>40664623</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>377</v>
+        <v>1059</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1">
       <c r="A197" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8427,19 +8696,19 @@
         <v>998</v>
       </c>
       <c r="C197" s="1">
-        <v>-358178</v>
+        <v>-4666738</v>
       </c>
       <c r="D197" s="1">
-        <v>40737553</v>
+        <v>40664623</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="15" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" customHeight="1">
       <c r="A198" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8447,25 +8716,19 @@
         <v>998</v>
       </c>
       <c r="C198" s="1">
-        <v>-4792404771</v>
+        <v>-358178</v>
       </c>
       <c r="D198" s="1">
-        <v>40605837889</v>
+        <v>40737553</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
-      </c>
-      <c r="G198" t="s">
-        <v>816</v>
-      </c>
-      <c r="H198" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" customHeight="1">
       <c r="A199" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8473,77 +8736,77 @@
         <v>998</v>
       </c>
       <c r="C199" s="1">
+        <v>-4792404771</v>
+      </c>
+      <c r="D199" s="1">
+        <v>40605837889</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F199" t="s">
+        <v>382</v>
+      </c>
+      <c r="G199" t="s">
+        <v>816</v>
+      </c>
+      <c r="H199" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" customHeight="1">
+      <c r="A200" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C200" s="1">
         <v>-5288138</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D200" s="1">
         <v>42450935</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F200" t="s">
         <v>384</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G200" t="s">
         <v>817</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H200" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15" customHeight="1">
-      <c r="A200" s="10" t="s">
+    <row r="201" spans="1:9" ht="15" customHeight="1">
+      <c r="A201" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C200" s="1">
+      <c r="B201" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C201" s="1">
         <v>-4289240688</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D201" s="1">
         <v>42593231387</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
         <v>386</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G201" t="s">
         <v>818</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H201" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15" customHeight="1">
-      <c r="A201" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="C201" s="1">
-        <v>-4278926</v>
-      </c>
-      <c r="D201" s="1">
-        <v>4285178</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
-      </c>
-      <c r="G201" t="s">
-        <v>819</v>
-      </c>
-      <c r="H201" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="15" customHeight="1">
+    <row r="202" spans="1:9" ht="15" customHeight="1">
       <c r="A202" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8551,77 +8814,80 @@
         <v>998</v>
       </c>
       <c r="C202" s="1">
+        <v>-4278926</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4285178</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F202" t="s">
+        <v>388</v>
+      </c>
+      <c r="G202" t="s">
+        <v>819</v>
+      </c>
+      <c r="H202" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1">
+      <c r="A203" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C203" s="1">
         <v>-3533611</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D203" s="1">
         <v>38745556</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E203" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>390</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G203" t="s">
         <v>821</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H203" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15" customHeight="1">
-      <c r="A203" s="10" t="s">
+    <row r="204" spans="1:9" ht="15" customHeight="1">
+      <c r="A204" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B204" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D204" s="1">
         <v>37774972</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E204" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F204" t="s">
         <v>393</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G204" t="s">
         <v>823</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H204" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="C204" s="1">
-        <v>-1297067</v>
-      </c>
-      <c r="D204" s="1">
-        <v>37748439</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F204" t="s">
-        <v>395</v>
-      </c>
-      <c r="G204" t="s">
-        <v>825</v>
-      </c>
-      <c r="H204" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15" customHeight="1">
+      <c r="I204" s="13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" customHeight="1">
       <c r="A205" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8629,77 +8895,80 @@
         <v>998</v>
       </c>
       <c r="C205" s="1">
+        <v>-1297067</v>
+      </c>
+      <c r="D205" s="1">
+        <v>37748439</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
+        <v>395</v>
+      </c>
+      <c r="G205" t="s">
+        <v>825</v>
+      </c>
+      <c r="H205" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" customHeight="1">
+      <c r="A206" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="C206" s="1">
         <v>-4269728</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D206" s="1">
         <v>37137688</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F206" t="s">
         <v>397</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G206" t="s">
         <v>827</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H206" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15" customHeight="1">
-      <c r="A206" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B206" s="7" t="s">
+    <row r="207" spans="1:9" ht="15" customHeight="1">
+      <c r="A207" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B207" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D207" s="1">
         <v>4151667</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F207" t="s">
         <v>400</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G207" t="s">
         <v>829</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H207" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="15" customHeight="1">
-      <c r="A207" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="C207" s="1">
-        <v>-1114744</v>
-      </c>
-      <c r="D207" s="1">
-        <v>38896378</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
-      </c>
-      <c r="G207" t="s">
-        <v>794</v>
-      </c>
-      <c r="H207" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="15" customHeight="1">
+      <c r="I207" s="13" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" customHeight="1">
       <c r="A208" s="10" t="s">
         <v>1001</v>
       </c>
@@ -8707,77 +8976,80 @@
         <v>998</v>
       </c>
       <c r="C208" s="1">
+        <v>-1114744</v>
+      </c>
+      <c r="D208" s="1">
+        <v>38896378</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F208" t="s">
+        <v>402</v>
+      </c>
+      <c r="G208" t="s">
+        <v>794</v>
+      </c>
+      <c r="H208" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15" customHeight="1">
+      <c r="A209" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="C209" s="1">
         <v>-5655556</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D209" s="1">
         <v>42589</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F209" t="s">
         <v>969</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G209" t="s">
         <v>832</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H209" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B209" s="7" t="s">
+      <c r="I209" s="13" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" customHeight="1">
+      <c r="A210" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C210" s="1">
         <v>-3320406</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D210" s="1">
         <v>39715822</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>405</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G210" t="s">
         <v>833</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H210" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
-      <c r="A210" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C210" s="1">
-        <v>-34251</v>
-      </c>
-      <c r="D210" s="1">
-        <v>385057</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F210" t="s">
-        <v>407</v>
-      </c>
-      <c r="G210" t="s">
-        <v>691</v>
-      </c>
-      <c r="H210" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+    <row r="211" spans="1:9" ht="15" customHeight="1">
       <c r="A211" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8785,77 +9057,83 @@
         <v>999</v>
       </c>
       <c r="C211" s="1">
+        <v>-34251</v>
+      </c>
+      <c r="D211" s="1">
+        <v>385057</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
+        <v>407</v>
+      </c>
+      <c r="G211" t="s">
+        <v>691</v>
+      </c>
+      <c r="H211" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15" customHeight="1">
+      <c r="A212" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C212" s="1">
         <v>-3560944</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D212" s="1">
         <v>40472231</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>409</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
         <v>835</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H212" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
-      <c r="A212" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B212" s="7" t="s">
+      <c r="I212" s="13" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15" customHeight="1">
+      <c r="A213" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B213" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C213" s="1">
         <v>-4499208</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D213" s="1">
         <v>36674972</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>982</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G213" t="s">
         <v>837</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H213" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
-      <c r="A213" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C213" s="1">
-        <v>4218647</v>
-      </c>
-      <c r="D213" s="1">
-        <v>39862597</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>942</v>
-      </c>
-      <c r="G213" t="s">
-        <v>839</v>
-      </c>
-      <c r="H213" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+      <c r="I213" s="13" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15" customHeight="1">
       <c r="A214" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8863,71 +9141,71 @@
         <v>999</v>
       </c>
       <c r="C214" s="1">
-        <v>-43716</v>
+        <v>4218647</v>
       </c>
       <c r="D214" s="1">
-        <v>409105</v>
+        <v>39862597</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>981</v>
+        <v>942</v>
       </c>
       <c r="G214" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H214" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15" customHeight="1">
       <c r="A215" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>413</v>
+      <c r="C215" s="1">
+        <v>-43716</v>
       </c>
       <c r="D215" s="1">
-        <v>40666627</v>
+        <v>409105</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+        <v>981</v>
+      </c>
+      <c r="G215" t="s">
+        <v>841</v>
+      </c>
+      <c r="H215" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15" customHeight="1">
       <c r="A216" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C216" s="1">
-        <v>-5615944</v>
+      <c r="C216" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="D216" s="1">
-        <v>37174917</v>
+        <v>40666627</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>417</v>
-      </c>
-      <c r="G216" t="s">
-        <v>843</v>
-      </c>
-      <c r="H216" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15" customHeight="1">
       <c r="A217" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8935,25 +9213,25 @@
         <v>999</v>
       </c>
       <c r="C217" s="1">
-        <v>-1097086</v>
+        <v>-5615944</v>
       </c>
       <c r="D217" s="1">
-        <v>37836872</v>
+        <v>37174917</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G217" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H217" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15" customHeight="1">
       <c r="A218" s="8" t="s">
         <v>1000</v>
       </c>
@@ -8961,103 +9239,106 @@
         <v>999</v>
       </c>
       <c r="C218" s="1">
+        <v>-1097086</v>
+      </c>
+      <c r="D218" s="1">
+        <v>37836872</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
+        <v>419</v>
+      </c>
+      <c r="G218" t="s">
+        <v>845</v>
+      </c>
+      <c r="H218" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15" customHeight="1">
+      <c r="A219" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C219" s="1">
         <v>-5826812</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D219" s="1">
         <v>43430557</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F219" t="s">
         <v>421</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G219" t="s">
         <v>846</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H219" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
-      <c r="A219" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C219" s="1">
-        <v>-4026691</v>
-      </c>
-      <c r="D219" s="1">
-        <v>40234853</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F219" t="s">
-        <v>423</v>
-      </c>
-      <c r="G219" t="s">
-        <v>847</v>
-      </c>
-      <c r="H219" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+      <c r="I219" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15" customHeight="1">
       <c r="A220" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="1">
+        <v>-4026691</v>
+      </c>
+      <c r="D220" s="1">
+        <v>40234853</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
+        <v>423</v>
+      </c>
+      <c r="G220" t="s">
+        <v>847</v>
+      </c>
+      <c r="H220" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15" customHeight="1">
+      <c r="A221" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D221" s="1">
         <v>38440589</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" t="s">
         <v>426</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>849</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H221" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1">
-      <c r="A221" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C221" s="1">
-        <v>-3248217</v>
-      </c>
-      <c r="D221" s="1">
-        <v>39562428</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F221" t="s">
-        <v>428</v>
-      </c>
-      <c r="G221" t="s">
-        <v>851</v>
-      </c>
-      <c r="H221" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1">
+    <row r="222" spans="1:9" ht="15" customHeight="1">
       <c r="A222" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9065,25 +9346,25 @@
         <v>999</v>
       </c>
       <c r="C222" s="1">
-        <v>-1303793366</v>
+        <v>-3248217</v>
       </c>
       <c r="D222" s="1">
-        <v>4266489768</v>
+        <v>39562428</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G222" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H222" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="15" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15" customHeight="1">
       <c r="A223" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9091,25 +9372,25 @@
         <v>999</v>
       </c>
       <c r="C223" s="1">
-        <v>-1687932462</v>
+        <v>-1303793366</v>
       </c>
       <c r="D223" s="1">
-        <v>42109928168</v>
+        <v>4266489768</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G223" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H223" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="15" customHeight="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15" customHeight="1">
       <c r="A224" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9117,71 +9398,77 @@
         <v>999</v>
       </c>
       <c r="C224" s="1">
-        <v>-2028582841</v>
+        <v>-1687932462</v>
       </c>
       <c r="D224" s="1">
-        <v>42426155917</v>
+        <v>42109928168</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G224" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H224" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="15" customHeight="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15" customHeight="1">
       <c r="A225" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="1">
+        <v>-2028582841</v>
+      </c>
+      <c r="D225" s="1">
+        <v>42426155917</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F225" t="s">
+        <v>434</v>
+      </c>
+      <c r="G225" t="s">
+        <v>854</v>
+      </c>
+      <c r="H225" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15" customHeight="1">
+      <c r="A226" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>437</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G226" t="s">
         <v>855</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H226" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15" customHeight="1">
-      <c r="A226" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C226" s="1">
-        <v>3813422000000000</v>
-      </c>
-      <c r="D226" s="1">
-        <v>39997579</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F226" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="15" customHeight="1">
+    <row r="227" spans="1:9" ht="15" customHeight="1">
       <c r="A227" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9189,19 +9476,19 @@
         <v>999</v>
       </c>
       <c r="C227" s="1">
-        <v>1419859</v>
+        <v>3813422000000000</v>
       </c>
       <c r="D227" s="1">
-        <v>38918736</v>
+        <v>39997579</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="15" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15" customHeight="1">
       <c r="A228" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9209,45 +9496,48 @@
         <v>999</v>
       </c>
       <c r="C228" s="1">
+        <v>1419859</v>
+      </c>
+      <c r="D228" s="1">
+        <v>38918736</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F228" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15" customHeight="1">
+      <c r="A229" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C229" s="1">
         <v>-3501944</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D229" s="1">
         <v>39938611</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F229" t="s">
         <v>956</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G229" t="s">
         <v>857</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H229" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="15" customHeight="1">
-      <c r="A229" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C229" s="1">
-        <v>2904021</v>
-      </c>
-      <c r="D229" s="1">
-        <v>4213214</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F229" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="15" customHeight="1">
+      <c r="I229" s="13" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15" customHeight="1">
       <c r="A230" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9255,25 +9545,19 @@
         <v>999</v>
       </c>
       <c r="C230" s="1">
-        <v>-1526333</v>
+        <v>2904021</v>
       </c>
       <c r="D230" s="1">
-        <v>38615069</v>
+        <v>4213214</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
-      </c>
-      <c r="G230" t="s">
-        <v>851</v>
-      </c>
-      <c r="H230" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="15" customHeight="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" customHeight="1">
       <c r="A231" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9281,25 +9565,25 @@
         <v>999</v>
       </c>
       <c r="C231" s="1">
-        <v>2877422869</v>
+        <v>-1526333</v>
       </c>
       <c r="D231" s="1">
-        <v>39680767134</v>
+        <v>38615069</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G231" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H231" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="15" customHeight="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15" customHeight="1">
       <c r="A232" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9307,25 +9591,25 @@
         <v>999</v>
       </c>
       <c r="C232" s="1">
-        <v>2738808</v>
+        <v>2877422869</v>
       </c>
       <c r="D232" s="1">
-        <v>39551675</v>
+        <v>39680767134</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G232" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H232" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="15" customHeight="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1">
       <c r="A233" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9333,19 +9617,25 @@
         <v>999</v>
       </c>
       <c r="C233" s="1">
-        <v>218292</v>
+        <v>2738808</v>
       </c>
       <c r="D233" s="1">
-        <v>41364414</v>
+        <v>39551675</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="15" customHeight="1">
+        <v>450</v>
+      </c>
+      <c r="G233" t="s">
+        <v>861</v>
+      </c>
+      <c r="H233" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15" customHeight="1">
       <c r="A234" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9353,25 +9643,19 @@
         <v>999</v>
       </c>
       <c r="C234" s="1">
-        <v>3101757</v>
+        <v>218292</v>
       </c>
       <c r="D234" s="1">
-        <v>39907451</v>
+        <v>41364414</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>962</v>
-      </c>
-      <c r="G234" t="s">
-        <v>864</v>
-      </c>
-      <c r="H234" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="15" customHeight="1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15" customHeight="1">
       <c r="A235" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9379,51 +9663,54 @@
         <v>999</v>
       </c>
       <c r="C235" s="1">
+        <v>3101757</v>
+      </c>
+      <c r="D235" s="1">
+        <v>39907451</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F235" t="s">
+        <v>962</v>
+      </c>
+      <c r="G235" t="s">
+        <v>864</v>
+      </c>
+      <c r="H235" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15" customHeight="1">
+      <c r="A236" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C236" s="1">
         <v>-1646331</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D236" s="1">
         <v>42770039</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F236" t="s">
         <v>455</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G236" t="s">
         <v>866</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H236" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="15" customHeight="1">
-      <c r="A236" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C236" s="1">
-        <v>-521365</v>
-      </c>
-      <c r="D236" s="1">
-        <v>37713139</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F236" t="s">
-        <v>968</v>
-      </c>
-      <c r="G236" t="s">
-        <v>863</v>
-      </c>
-      <c r="H236" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="15" customHeight="1">
+      <c r="I236" s="13" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15" customHeight="1">
       <c r="A237" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9431,19 +9718,25 @@
         <v>999</v>
       </c>
       <c r="C237" s="1">
-        <v>115333</v>
+        <v>-521365</v>
       </c>
       <c r="D237" s="1">
-        <v>41184449</v>
+        <v>37713139</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="15" customHeight="1">
+        <v>968</v>
+      </c>
+      <c r="G237" t="s">
+        <v>863</v>
+      </c>
+      <c r="H237" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15" customHeight="1">
       <c r="A238" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9451,19 +9744,19 @@
         <v>999</v>
       </c>
       <c r="C238" s="1">
-        <v>-7586722</v>
+        <v>115333</v>
       </c>
       <c r="D238" s="1">
-        <v>43676465</v>
+        <v>41184449</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F238" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="15" customHeight="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15" customHeight="1">
       <c r="A239" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9471,19 +9764,19 @@
         <v>999</v>
       </c>
       <c r="C239" s="1">
-        <v>2560917</v>
+        <v>-7586722</v>
       </c>
       <c r="D239" s="1">
-        <v>41583927</v>
+        <v>43676465</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F239" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="15" customHeight="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15" customHeight="1">
       <c r="A240" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9491,25 +9784,19 @@
         <v>999</v>
       </c>
       <c r="C240" s="1">
-        <v>-4191111</v>
+        <v>2560917</v>
       </c>
       <c r="D240" s="1">
-        <v>38912222</v>
+        <v>41583927</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F240" t="s">
-        <v>943</v>
-      </c>
-      <c r="G240" t="s">
-        <v>868</v>
-      </c>
-      <c r="H240" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15" customHeight="1">
       <c r="A241" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9517,45 +9804,51 @@
         <v>999</v>
       </c>
       <c r="C241" s="1">
+        <v>-4191111</v>
+      </c>
+      <c r="D241" s="1">
+        <v>38912222</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F241" t="s">
+        <v>943</v>
+      </c>
+      <c r="G241" t="s">
+        <v>868</v>
+      </c>
+      <c r="H241" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15" customHeight="1">
+      <c r="A242" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C242" s="1">
         <v>-1034</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D242" s="1">
         <v>39473167</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F242" t="s">
         <v>464</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G242" t="s">
         <v>870</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H242" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15" customHeight="1">
-      <c r="A242" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C242" s="1">
-        <v>1852827</v>
-      </c>
-      <c r="D242" s="1">
-        <v>42105457</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F242" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="15" customHeight="1">
+    <row r="243" spans="1:10" ht="15" customHeight="1">
       <c r="A243" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9563,77 +9856,74 @@
         <v>999</v>
       </c>
       <c r="C243" s="1">
+        <v>1852827</v>
+      </c>
+      <c r="D243" s="1">
+        <v>42105457</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F243" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15" customHeight="1">
+      <c r="A244" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C244" s="1">
         <v>-123306</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F244" t="s">
         <v>469</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G244" t="s">
         <v>871</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H244" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" customHeight="1">
-      <c r="A244" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B244" s="7" t="s">
+    <row r="245" spans="1:10" ht="15" customHeight="1">
+      <c r="A245" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B245" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C245" s="1">
         <v>-233306</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F245" t="s">
         <v>977</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G245" t="s">
         <v>872</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H245" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="15" customHeight="1">
-      <c r="A245" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C245" s="1">
-        <v>-3970065</v>
-      </c>
-      <c r="D245" s="1">
-        <v>38856507</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F245" t="s">
-        <v>939</v>
-      </c>
-      <c r="G245" t="s">
-        <v>874</v>
-      </c>
-      <c r="H245" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="15" customHeight="1">
+      <c r="I245" s="13" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15" customHeight="1">
       <c r="A246" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9641,25 +9931,25 @@
         <v>999</v>
       </c>
       <c r="C246" s="1">
-        <v>-3247345</v>
+        <v>-3970065</v>
       </c>
       <c r="D246" s="1">
-        <v>4086544</v>
+        <v>38856507</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>939</v>
       </c>
       <c r="G246" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H246" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="15" customHeight="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15" customHeight="1">
       <c r="A247" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9667,97 +9957,112 @@
         <v>999</v>
       </c>
       <c r="C247" s="1">
+        <v>-3247345</v>
+      </c>
+      <c r="D247" s="1">
+        <v>4086544</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F247" t="s">
+        <v>474</v>
+      </c>
+      <c r="G247" t="s">
+        <v>876</v>
+      </c>
+      <c r="H247" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15" customHeight="1">
+      <c r="A248" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C248" s="1">
         <v>-7470278</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D248" s="1">
         <v>43116944</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F248" t="s">
         <v>476</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G248" t="s">
         <v>877</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H248" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" ht="15" customHeight="1">
-      <c r="A248" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B248" s="7" t="s">
+      <c r="I248" s="13" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15" customHeight="1">
+      <c r="A249" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B249" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C249" s="1">
         <v>1167172</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D249" s="1">
         <v>41147389</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F249" t="s">
         <v>478</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G249" t="s">
         <v>879</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H249" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" ht="15" customHeight="1">
-      <c r="A249" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C249" s="1">
+      <c r="I249" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J249" s="13" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15" customHeight="1">
+      <c r="A250" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C250" s="1">
         <v>-6349138999999990</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D250" s="1">
         <v>36645056</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F250" t="s">
         <v>480</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G250" t="s">
         <v>881</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H250" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" customHeight="1">
-      <c r="A250" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C250" s="1">
-        <v>2259225</v>
-      </c>
-      <c r="D250" s="1">
-        <v>41575264</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F250" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="15" customHeight="1">
+    <row r="251" spans="1:10" ht="15" customHeight="1">
       <c r="A251" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9765,77 +10070,71 @@
         <v>999</v>
       </c>
       <c r="C251" s="1">
+        <v>2259225</v>
+      </c>
+      <c r="D251" s="1">
+        <v>41575264</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F251" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15" customHeight="1">
+      <c r="A252" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C252" s="1">
         <v>-7016977966</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D252" s="1">
         <v>43553944677</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F252" t="s">
         <v>484</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G252" t="s">
         <v>883</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H252" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" customHeight="1">
-      <c r="A252" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C252" s="1">
+    <row r="253" spans="1:10" ht="15" customHeight="1">
+      <c r="A253" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C253" s="1">
         <v>-5501986</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D253" s="1">
         <v>40952117</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F253" t="s">
         <v>978</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G253" t="s">
         <v>884</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" customHeight="1">
-      <c r="A253" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C253" s="1">
-        <v>2702778</v>
-      </c>
-      <c r="D253" s="1">
-        <v>39598889</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F253" t="s">
-        <v>487</v>
-      </c>
-      <c r="G253" t="s">
-        <v>886</v>
-      </c>
-      <c r="H253" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="15" customHeight="1">
+    <row r="254" spans="1:10" ht="15" customHeight="1">
       <c r="A254" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9843,25 +10142,25 @@
         <v>999</v>
       </c>
       <c r="C254" s="1">
-        <v>-4556786</v>
+        <v>2702778</v>
       </c>
       <c r="D254" s="1">
-        <v>40019411</v>
+        <v>39598889</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G254" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H254" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15" customHeight="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15" customHeight="1">
       <c r="A255" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9869,25 +10168,25 @@
         <v>999</v>
       </c>
       <c r="C255" s="1">
-        <v>-43131</v>
+        <v>-4556786</v>
       </c>
       <c r="D255" s="1">
-        <v>387311</v>
+        <v>40019411</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G255" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H255" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="15" customHeight="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15" customHeight="1">
       <c r="A256" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9895,25 +10194,25 @@
         <v>999</v>
       </c>
       <c r="C256" s="1">
-        <v>-1287097</v>
+        <v>-43131</v>
       </c>
       <c r="D256" s="1">
-        <v>42568092</v>
+        <v>387311</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G256" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H256" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="15" customHeight="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15" customHeight="1">
       <c r="A257" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9921,71 +10220,80 @@
         <v>999</v>
       </c>
       <c r="C257" s="1">
+        <v>-1287097</v>
+      </c>
+      <c r="D257" s="1">
+        <v>42568092</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F257" t="s">
+        <v>493</v>
+      </c>
+      <c r="G257" t="s">
+        <v>891</v>
+      </c>
+      <c r="H257" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15" customHeight="1">
+      <c r="A258" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C258" s="1">
         <v>4256914</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D258" s="1">
         <v>39865579</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E258" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F258" t="s">
         <v>495</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G258" t="s">
         <v>893</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H258" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15" customHeight="1">
-      <c r="A258" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B258" s="7" t="s">
+    <row r="259" spans="1:9" ht="15" customHeight="1">
+      <c r="A259" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B259" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C259" s="1">
         <v>-1790611</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D259" s="1">
         <v>43356519</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>979</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G259" t="s">
         <v>618</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H259" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="15" customHeight="1">
-      <c r="A259" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C259" s="1">
-        <v>2171331</v>
-      </c>
-      <c r="D259" s="1">
-        <v>41412886</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F259" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="15" customHeight="1">
+      <c r="I259" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15" customHeight="1">
       <c r="A260" s="8" t="s">
         <v>1000</v>
       </c>
@@ -9993,25 +10301,19 @@
         <v>999</v>
       </c>
       <c r="C260" s="1">
-        <v>-2141572</v>
+        <v>2171331</v>
       </c>
       <c r="D260" s="1">
-        <v>40201906</v>
+        <v>41412886</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
-      </c>
-      <c r="G260" t="s">
-        <v>663</v>
-      </c>
-      <c r="H260" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="15" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" customHeight="1">
       <c r="A261" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10019,189 +10321,198 @@
         <v>999</v>
       </c>
       <c r="C261" s="1">
+        <v>-2141572</v>
+      </c>
+      <c r="D261" s="1">
+        <v>40201906</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F261" t="s">
+        <v>500</v>
+      </c>
+      <c r="G261" t="s">
+        <v>663</v>
+      </c>
+      <c r="H261" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15" customHeight="1">
+      <c r="A262" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C262" s="1">
         <v>-8415144</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D262" s="1">
         <v>42896333</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E262" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F262" t="s">
         <v>502</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G262" t="s">
         <v>897</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H262" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" ht="15" customHeight="1">
-      <c r="A262" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B262" s="7" t="s">
+      <c r="I262" s="13" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" customHeight="1">
+      <c r="A263" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B263" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C263" s="1">
         <v>1409167</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D263" s="1">
         <v>42338611</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F263" t="s">
         <v>504</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G263" t="s">
         <v>691</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H263" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="15" customHeight="1">
-      <c r="A263" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C263" s="1">
-        <v>-6377002</v>
-      </c>
-      <c r="D263" s="1">
-        <v>43332287</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F263" t="s">
-        <v>506</v>
-      </c>
-      <c r="G263" t="s">
-        <v>899</v>
-      </c>
-      <c r="H263" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="15" customHeight="1">
+      <c r="I263" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15" customHeight="1">
       <c r="A264" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>507</v>
+      <c r="C264" s="1">
+        <v>-6377002</v>
       </c>
       <c r="D264" s="1">
-        <v>42164085</v>
+        <v>43332287</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="15" customHeight="1">
+        <v>506</v>
+      </c>
+      <c r="G264" t="s">
+        <v>899</v>
+      </c>
+      <c r="H264" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15" customHeight="1">
       <c r="A265" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C265" s="1">
-        <v>1242487</v>
+      <c r="C265" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D265" s="1">
-        <v>42518703</v>
+        <v>42164085</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="15" customHeight="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15" customHeight="1">
       <c r="A266" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>512</v>
+      <c r="C266" s="1">
+        <v>1242487</v>
       </c>
       <c r="D266" s="1">
-        <v>42696725</v>
+        <v>42518703</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="15" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15" customHeight="1">
       <c r="A267" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D267" s="1">
+        <v>42696725</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F267" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15" customHeight="1">
+      <c r="A268" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C268" s="1">
         <v>-4921142</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D268" s="1">
         <v>41531162</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E268" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F268" t="s">
         <v>937</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G268" t="s">
         <v>900</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H268" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" ht="15" customHeight="1">
-      <c r="A268" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C268" s="1">
-        <v>-1218335</v>
-      </c>
-      <c r="D268" s="1">
-        <v>40410667</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F268" t="s">
-        <v>963</v>
-      </c>
-      <c r="G268" t="s">
-        <v>902</v>
-      </c>
-      <c r="H268" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="15" customHeight="1">
+      <c r="I268" s="13" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15" customHeight="1">
       <c r="A269" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10209,25 +10520,25 @@
         <v>999</v>
       </c>
       <c r="C269" s="1">
-        <v>-5648681</v>
+        <v>-1218335</v>
       </c>
       <c r="D269" s="1">
-        <v>36872021</v>
+        <v>40410667</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
       <c r="G269" t="s">
-        <v>587</v>
+        <v>902</v>
       </c>
       <c r="H269" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="15" customHeight="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15" customHeight="1">
       <c r="A270" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10235,25 +10546,25 @@
         <v>999</v>
       </c>
       <c r="C270" s="1">
-        <v>-4789403</v>
+        <v>-5648681</v>
       </c>
       <c r="D270" s="1">
-        <v>40247643</v>
+        <v>36872021</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="G270" t="s">
-        <v>904</v>
+        <v>587</v>
       </c>
       <c r="H270" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="15" customHeight="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15" customHeight="1">
       <c r="A271" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10261,25 +10572,25 @@
         <v>999</v>
       </c>
       <c r="C271" s="1">
-        <v>-614145</v>
+        <v>-4789403</v>
       </c>
       <c r="D271" s="1">
-        <v>36858661</v>
+        <v>40247643</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>965</v>
       </c>
       <c r="G271" t="s">
-        <v>730</v>
+        <v>904</v>
       </c>
       <c r="H271" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="15" customHeight="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15" customHeight="1">
       <c r="A272" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10287,25 +10598,28 @@
         <v>999</v>
       </c>
       <c r="C272" s="1">
-        <v>-3458306</v>
+        <v>-614145</v>
       </c>
       <c r="D272" s="1">
-        <v>40486806</v>
+        <v>36858661</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G272" t="s">
-        <v>905</v>
+        <v>730</v>
       </c>
       <c r="H272" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1">
+        <v>645</v>
+      </c>
+      <c r="I272" s="13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="15" customHeight="1">
       <c r="A273" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10313,77 +10627,77 @@
         <v>999</v>
       </c>
       <c r="C273" s="1">
+        <v>-3458306</v>
+      </c>
+      <c r="D273" s="1">
+        <v>40486806</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F273" t="s">
+        <v>522</v>
+      </c>
+      <c r="G273" t="s">
+        <v>905</v>
+      </c>
+      <c r="H273" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="15" customHeight="1">
+      <c r="A274" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C274" s="1">
         <v>-3592627</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D274" s="1">
         <v>41203842</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E274" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F274" t="s">
         <v>964</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G274" t="s">
         <v>907</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H274" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1">
-      <c r="A274" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C274" s="1">
-        <v>-1447387934</v>
-      </c>
-      <c r="D274" s="1">
-        <v>3775357414</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F274" t="s">
-        <v>525</v>
-      </c>
-      <c r="G274" t="s">
-        <v>909</v>
-      </c>
-      <c r="H274" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1">
+    <row r="275" spans="1:10" ht="15" customHeight="1">
       <c r="A275" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>526</v>
+      <c r="C275" s="1">
+        <v>-1447387934</v>
       </c>
       <c r="D275" s="1">
-        <v>38918674</v>
+        <v>3775357414</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G275" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H275" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="15" customHeight="1">
       <c r="A276" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10391,155 +10705,161 @@
         <v>999</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D276" s="1">
+        <v>38918674</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F276" t="s">
+        <v>528</v>
+      </c>
+      <c r="G276" t="s">
+        <v>910</v>
+      </c>
+      <c r="H276" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15" customHeight="1">
+      <c r="A277" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D277" s="1">
         <v>3975110136</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E277" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F277" t="s">
         <v>531</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G277" t="s">
         <v>864</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H277" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1">
-      <c r="A277" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B277" s="7" t="s">
+    <row r="278" spans="1:10" ht="15" customHeight="1">
+      <c r="A278" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B278" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D278" s="1">
         <v>39489314</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E278" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F278" t="s">
         <v>534</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G278" t="s">
         <v>911</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H278" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1">
-      <c r="A278" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B278" s="7" t="s">
+      <c r="I278" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15" customHeight="1">
+      <c r="A279" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B279" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C279" s="1">
         <v>-4851861</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D279" s="1">
         <v>41706</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E279" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F279" t="s">
         <v>536</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G279" t="s">
         <v>913</v>
       </c>
-      <c r="H278" t="s">
+      <c r="H279" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1">
-      <c r="A279" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C279" s="1">
-        <v>-7087994</v>
-      </c>
-      <c r="D279" s="1">
-        <v>43551544</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F279" t="s">
-        <v>538</v>
-      </c>
-      <c r="G279" t="s">
-        <v>741</v>
-      </c>
-      <c r="H279" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1">
+      <c r="I279" s="13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15" customHeight="1">
       <c r="A280" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>539</v>
+      <c r="C280" s="1">
+        <v>-7087994</v>
       </c>
       <c r="D280" s="1">
-        <v>41791752</v>
+        <v>43551544</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>980</v>
+        <v>538</v>
       </c>
       <c r="G280" t="s">
-        <v>916</v>
+        <v>741</v>
       </c>
       <c r="H280" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15" customHeight="1">
       <c r="A281" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C281" s="1">
-        <v>-2724469</v>
+      <c r="C281" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D281" s="1">
-        <v>42882836</v>
+        <v>41791752</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>980</v>
       </c>
       <c r="G281" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H281" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" customHeight="1">
       <c r="A282" s="8" t="s">
         <v>1000</v>
       </c>
@@ -10547,130 +10867,177 @@
         <v>999</v>
       </c>
       <c r="C282" s="1">
+        <v>-2724469</v>
+      </c>
+      <c r="D282" s="1">
+        <v>42882836</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F282" t="s">
+        <v>542</v>
+      </c>
+      <c r="G282" t="s">
+        <v>917</v>
+      </c>
+      <c r="H282" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" customHeight="1">
+      <c r="A283" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C283" s="1">
         <v>-8627528</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D283" s="1">
         <v>42229119</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E283" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F283" t="s">
         <v>544</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G283" t="s">
         <v>919</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H283" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1">
-      <c r="A283" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B283" s="7" t="s">
+      <c r="I283" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J283" s="13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A284" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B284" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C284" s="1">
         <v>-3820006</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D284" s="1">
         <v>43427064</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E284" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F284" t="s">
         <v>546</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G284" t="s">
         <v>921</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H284" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1">
-      <c r="A284" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B284" s="7" t="s">
+      <c r="I284" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J284" s="13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15" customHeight="1">
+      <c r="A285" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B285" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C285" s="1">
         <v>-1041553</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D285" s="1">
         <v>41666242</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E285" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F285" t="s">
         <v>548</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G285" t="s">
         <v>923</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H285" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1">
-      <c r="A285" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B285" s="7" t="s">
+      <c r="I285" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" customHeight="1">
+      <c r="A286" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B286" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C286" s="1">
         <v>-5898914</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D286" s="1">
         <v>37417922</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E286" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F286" t="s">
         <v>550</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G286" t="s">
         <v>925</v>
       </c>
-      <c r="H285" t="s">
+      <c r="H286" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1">
-      <c r="A286" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B286" s="7" t="s">
+      <c r="I286" s="13" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15" customHeight="1">
+      <c r="A287" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B287" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D287" s="1">
         <v>42796297</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E287" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F287" t="s">
         <v>553</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G287" t="s">
         <v>927</v>
       </c>
-      <c r="H286" t="s">
+      <c r="H287" t="s">
         <v>675</v>
       </c>
+      <c r="J287" s="13" t="s">
+        <v>1063</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H286">
+  <autoFilter ref="A1:H287">
     <sortState ref="A2:H286">
       <sortCondition ref="E1:E286"/>
     </sortState>
@@ -10678,8 +11045,67 @@
   <sortState ref="A2:I284">
     <sortCondition ref="E154"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I284" r:id="rId1"/>
+    <hyperlink ref="J284" r:id="rId2"/>
+    <hyperlink ref="J124" r:id="rId3"/>
+    <hyperlink ref="I124" r:id="rId4"/>
+    <hyperlink ref="I119" r:id="rId5"/>
+    <hyperlink ref="I122" r:id="rId6"/>
+    <hyperlink ref="I126" r:id="rId7" location="F!Dl4gjLba!dGxOtwNQhPBqc2dYeVDxkA"/>
+    <hyperlink ref="I136" r:id="rId8"/>
+    <hyperlink ref="I154" r:id="rId9"/>
+    <hyperlink ref="I164" r:id="rId10"/>
+    <hyperlink ref="I166" r:id="rId11"/>
+    <hyperlink ref="I207" r:id="rId12"/>
+    <hyperlink ref="I209" r:id="rId13"/>
+    <hyperlink ref="I212" r:id="rId14"/>
+    <hyperlink ref="I213" r:id="rId15"/>
+    <hyperlink ref="I219" r:id="rId16"/>
+    <hyperlink ref="I229" r:id="rId17"/>
+    <hyperlink ref="I245" r:id="rId18"/>
+    <hyperlink ref="I248" r:id="rId19"/>
+    <hyperlink ref="I249" r:id="rId20"/>
+    <hyperlink ref="I259" r:id="rId21"/>
+    <hyperlink ref="I262" r:id="rId22"/>
+    <hyperlink ref="I263" r:id="rId23"/>
+    <hyperlink ref="I268" r:id="rId24"/>
+    <hyperlink ref="I272" r:id="rId25"/>
+    <hyperlink ref="I278" r:id="rId26"/>
+    <hyperlink ref="I279" r:id="rId27"/>
+    <hyperlink ref="I283" r:id="rId28"/>
+    <hyperlink ref="I185" r:id="rId29"/>
+    <hyperlink ref="I14" r:id="rId30"/>
+    <hyperlink ref="I4" r:id="rId31"/>
+    <hyperlink ref="I6" r:id="rId32"/>
+    <hyperlink ref="I8" r:id="rId33"/>
+    <hyperlink ref="I9" r:id="rId34"/>
+    <hyperlink ref="I21" r:id="rId35"/>
+    <hyperlink ref="I52" r:id="rId36"/>
+    <hyperlink ref="I55" r:id="rId37"/>
+    <hyperlink ref="I13" r:id="rId38"/>
+    <hyperlink ref="I204" r:id="rId39"/>
+    <hyperlink ref="J283" r:id="rId40"/>
+    <hyperlink ref="I236" r:id="rId41"/>
+    <hyperlink ref="J93" r:id="rId42"/>
+    <hyperlink ref="I93" r:id="rId43"/>
+    <hyperlink ref="I94" r:id="rId44"/>
+    <hyperlink ref="I95" r:id="rId45" location="%21LRYSFSoQ%21aX6WxTyh10YwNeoSOAsa7RWo79ABNTxqII8vlnLh9BY"/>
+    <hyperlink ref="I96" r:id="rId46"/>
+    <hyperlink ref="I101" r:id="rId47"/>
+    <hyperlink ref="I104" r:id="rId48"/>
+    <hyperlink ref="I106" r:id="rId49"/>
+    <hyperlink ref="J249" r:id="rId50"/>
+    <hyperlink ref="J164" r:id="rId51"/>
+    <hyperlink ref="I3" r:id="rId52"/>
+    <hyperlink ref="I12" r:id="rId53"/>
+    <hyperlink ref="J12" r:id="rId54"/>
+    <hyperlink ref="I2" r:id="rId55"/>
+    <hyperlink ref="I286" r:id="rId56"/>
+    <hyperlink ref="J287" r:id="rId57"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -10702,7 +11128,7 @@
         <v>931</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTBLANK(AD!B2:B286)</f>
+        <f>COUNTBLANK(AD!B2:B287)</f>
         <v>0</v>
       </c>
     </row>
@@ -10711,7 +11137,7 @@
         <v>932</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIFS(AD!B2:B286,"BETA1")-COUNTIFS(AD!B2:B286,"BETA1",AD!A2:A286,"OK")-COUNTIFS(AD!B2:B286,"BETA1",AD!A2:A286,"SERGIO")</f>
+        <f>COUNTIFS(AD!B2:B287,"BETA1")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"OK")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"SERGIO")</f>
         <v>0</v>
       </c>
     </row>
@@ -10720,7 +11146,7 @@
         <v>933</v>
       </c>
       <c r="B3" s="3">
-        <f>COUNTIFS(AD!B2:B286,"BETA2")-COUNTIFS(AD!B2:B286,"BETA2",AD!A2:A286,"OK")</f>
+        <f>COUNTIFS(AD!B2:B287,"BETA2")-COUNTIFS(AD!B2:B287,"BETA2",AD!A2:A287,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -10729,7 +11155,7 @@
         <v>934</v>
       </c>
       <c r="B4" s="3">
-        <f>COUNTIFS(AD!B2:B286,"BETA3")-COUNTIFS(AD!B2:B286,"BETA3",AD!A2:A286,"OK")</f>
+        <f>COUNTIFS(AD!B2:B287,"BETA3")-COUNTIFS(AD!B2:B287,"BETA3",AD!A2:A287,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -10739,7 +11165,7 @@
         <v>935</v>
       </c>
       <c r="B6" s="3">
-        <f>COUNTIFS(AD!A2:A286,"OK" )+COUNTIFS(AD!A2:A286,"SERGIO" )</f>
+        <f>COUNTIFS(AD!A2:A287,"OK" )+COUNTIFS(AD!A2:A287,"SERGIO" )</f>
         <v>0</v>
       </c>
     </row>

--- a/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
+++ b/trunk/airhispania-xsc/AirHispania Aerodromos.xlsx
@@ -11,9 +11,9 @@
     <sheet name="PTES" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$287</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$287</definedName>
-    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AD!$A$1:$H$288</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AD!$A$1:$H$288</definedName>
+    <definedName name="Hoja1" localSheetId="0">AD!$C$2:$H$288</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1067">
   <si>
     <t>GCFV</t>
   </si>
@@ -3232,6 +3232,12 @@
   </si>
   <si>
     <t>Hay que cambiarlo por LE34 debido a la innauguracion de Castellon LECH</t>
+  </si>
+  <si>
+    <t>LETL</t>
+  </si>
+  <si>
+    <t>Teruel</t>
   </si>
 </sst>
 </file>
@@ -3657,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -8807,10 +8813,10 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1">
-      <c r="A202" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="A202" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>998</v>
       </c>
       <c r="C202" s="1">
@@ -10620,81 +10626,70 @@
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" customHeight="1">
-      <c r="A273" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B273" s="7" t="s">
+      <c r="A273" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I273" s="13"/>
+    </row>
+    <row r="274" spans="1:10" ht="15" customHeight="1">
+      <c r="A274" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B274" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C274" s="1">
         <v>-3458306</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D274" s="1">
         <v>40486806</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E274" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F274" t="s">
         <v>522</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G274" t="s">
         <v>905</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H274" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="15" customHeight="1">
-      <c r="A274" s="10" t="s">
+    <row r="275" spans="1:10" ht="15" customHeight="1">
+      <c r="A275" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B275" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C275" s="1">
         <v>-3592627</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D275" s="1">
         <v>41203842</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E275" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F275" t="s">
         <v>964</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G275" t="s">
         <v>907</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H275" t="s">
         <v>908</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" ht="15" customHeight="1">
-      <c r="A275" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C275" s="1">
-        <v>-1447387934</v>
-      </c>
-      <c r="D275" s="1">
-        <v>3775357414</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F275" t="s">
-        <v>525</v>
-      </c>
-      <c r="G275" t="s">
-        <v>909</v>
-      </c>
-      <c r="H275" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15" customHeight="1">
@@ -10704,78 +10699,75 @@
       <c r="B276" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="1">
+        <v>-1447387934</v>
+      </c>
+      <c r="D276" s="1">
+        <v>3775357414</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F276" t="s">
+        <v>525</v>
+      </c>
+      <c r="G276" t="s">
+        <v>909</v>
+      </c>
+      <c r="H276" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15" customHeight="1">
+      <c r="A277" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D277" s="1">
         <v>38918674</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E277" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F277" t="s">
         <v>528</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G277" t="s">
         <v>910</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H277" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15" customHeight="1">
-      <c r="A277" s="10" t="s">
+    <row r="278" spans="1:10" ht="15" customHeight="1">
+      <c r="A278" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B278" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D278" s="1">
         <v>3975110136</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E278" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F278" t="s">
         <v>531</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G278" t="s">
         <v>864</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H278" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" ht="15" customHeight="1">
-      <c r="A278" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D278" s="1">
-        <v>39489314</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F278" t="s">
-        <v>534</v>
-      </c>
-      <c r="G278" t="s">
-        <v>911</v>
-      </c>
-      <c r="H278" t="s">
-        <v>912</v>
-      </c>
-      <c r="I278" s="13" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15" customHeight="1">
@@ -10785,52 +10777,55 @@
       <c r="B279" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D279" s="1">
+        <v>39489314</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F279" t="s">
+        <v>534</v>
+      </c>
+      <c r="G279" t="s">
+        <v>911</v>
+      </c>
+      <c r="H279" t="s">
+        <v>912</v>
+      </c>
+      <c r="I279" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15" customHeight="1">
+      <c r="A280" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C280" s="1">
         <v>-4851861</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D280" s="1">
         <v>41706</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E280" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F280" t="s">
         <v>536</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G280" t="s">
         <v>913</v>
       </c>
-      <c r="H279" t="s">
+      <c r="H280" t="s">
         <v>914</v>
       </c>
-      <c r="I279" s="13" t="s">
+      <c r="I280" s="13" t="s">
         <v>1020</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="15" customHeight="1">
-      <c r="A280" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C280" s="1">
-        <v>-7087994</v>
-      </c>
-      <c r="D280" s="1">
-        <v>43551544</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F280" t="s">
-        <v>538</v>
-      </c>
-      <c r="G280" t="s">
-        <v>741</v>
-      </c>
-      <c r="H280" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15" customHeight="1">
@@ -10840,23 +10835,23 @@
       <c r="B281" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>539</v>
+      <c r="C281" s="1">
+        <v>-7087994</v>
       </c>
       <c r="D281" s="1">
-        <v>41791752</v>
+        <v>43551544</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>980</v>
+        <v>538</v>
       </c>
       <c r="G281" t="s">
-        <v>916</v>
+        <v>741</v>
       </c>
       <c r="H281" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15" customHeight="1">
@@ -10866,58 +10861,52 @@
       <c r="B282" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D282" s="1">
+        <v>41791752</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F282" t="s">
+        <v>980</v>
+      </c>
+      <c r="G282" t="s">
+        <v>916</v>
+      </c>
+      <c r="H282" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" customHeight="1">
+      <c r="A283" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C283" s="1">
         <v>-2724469</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D283" s="1">
         <v>42882836</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E283" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F283" t="s">
         <v>542</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G283" t="s">
         <v>917</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H283" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15" customHeight="1">
-      <c r="A283" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C283" s="1">
-        <v>-8627528</v>
-      </c>
-      <c r="D283" s="1">
-        <v>42229119</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F283" t="s">
-        <v>544</v>
-      </c>
-      <c r="G283" t="s">
-        <v>919</v>
-      </c>
-      <c r="H283" t="s">
-        <v>920</v>
-      </c>
-      <c r="I283" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J283" s="13" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" ht="12.75" customHeight="1">
+    <row r="284" spans="1:10" ht="15" customHeight="1">
       <c r="A284" s="12" t="s">
         <v>1000</v>
       </c>
@@ -10925,86 +10914,89 @@
         <v>999</v>
       </c>
       <c r="C284" s="1">
+        <v>-8627528</v>
+      </c>
+      <c r="D284" s="1">
+        <v>42229119</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F284" t="s">
+        <v>544</v>
+      </c>
+      <c r="G284" t="s">
+        <v>919</v>
+      </c>
+      <c r="H284" t="s">
+        <v>920</v>
+      </c>
+      <c r="I284" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J284" s="13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A285" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C285" s="1">
         <v>-3820006</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D285" s="1">
         <v>43427064</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E285" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F285" t="s">
         <v>546</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G285" t="s">
         <v>921</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H285" t="s">
         <v>922</v>
       </c>
-      <c r="I284" s="13" t="s">
+      <c r="I285" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="J284" s="13" t="s">
+      <c r="J285" s="13" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15" customHeight="1">
-      <c r="A285" s="10" t="s">
+    <row r="286" spans="1:10" ht="15" customHeight="1">
+      <c r="A286" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B286" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C286" s="1">
         <v>-1041553</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D286" s="1">
         <v>41666242</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E286" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F286" t="s">
         <v>548</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G286" t="s">
         <v>923</v>
       </c>
-      <c r="H285" t="s">
+      <c r="H286" t="s">
         <v>924</v>
       </c>
-      <c r="I285" t="s">
+      <c r="I286" t="s">
         <v>1061</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" ht="15" customHeight="1">
-      <c r="A286" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C286" s="1">
-        <v>-5898914</v>
-      </c>
-      <c r="D286" s="1">
-        <v>37417922</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F286" t="s">
-        <v>550</v>
-      </c>
-      <c r="G286" t="s">
-        <v>925</v>
-      </c>
-      <c r="H286" t="s">
-        <v>926</v>
-      </c>
-      <c r="I286" s="13" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="15" customHeight="1">
@@ -11014,30 +11006,59 @@
       <c r="B287" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="1">
+        <v>-5898914</v>
+      </c>
+      <c r="D287" s="1">
+        <v>37417922</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F287" t="s">
+        <v>550</v>
+      </c>
+      <c r="G287" t="s">
+        <v>925</v>
+      </c>
+      <c r="H287" t="s">
+        <v>926</v>
+      </c>
+      <c r="I287" s="13" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15" customHeight="1">
+      <c r="A288" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D288" s="1">
         <v>42796297</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="E288" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F288" t="s">
         <v>553</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G288" t="s">
         <v>927</v>
       </c>
-      <c r="H287" t="s">
+      <c r="H288" t="s">
         <v>675</v>
       </c>
-      <c r="J287" s="13" t="s">
+      <c r="J288" s="13" t="s">
         <v>1063</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H287">
+  <autoFilter ref="A1:H288">
     <sortState ref="A2:H286">
       <sortCondition ref="E1:E286"/>
     </sortState>
@@ -11046,8 +11067,8 @@
     <sortCondition ref="E154"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I284" r:id="rId1"/>
-    <hyperlink ref="J284" r:id="rId2"/>
+    <hyperlink ref="I285" r:id="rId1"/>
+    <hyperlink ref="J285" r:id="rId2"/>
     <hyperlink ref="J124" r:id="rId3"/>
     <hyperlink ref="I124" r:id="rId4"/>
     <hyperlink ref="I119" r:id="rId5"/>
@@ -11071,9 +11092,9 @@
     <hyperlink ref="I263" r:id="rId23"/>
     <hyperlink ref="I268" r:id="rId24"/>
     <hyperlink ref="I272" r:id="rId25"/>
-    <hyperlink ref="I278" r:id="rId26"/>
-    <hyperlink ref="I279" r:id="rId27"/>
-    <hyperlink ref="I283" r:id="rId28"/>
+    <hyperlink ref="I279" r:id="rId26"/>
+    <hyperlink ref="I280" r:id="rId27"/>
+    <hyperlink ref="I284" r:id="rId28"/>
     <hyperlink ref="I185" r:id="rId29"/>
     <hyperlink ref="I14" r:id="rId30"/>
     <hyperlink ref="I4" r:id="rId31"/>
@@ -11085,7 +11106,7 @@
     <hyperlink ref="I55" r:id="rId37"/>
     <hyperlink ref="I13" r:id="rId38"/>
     <hyperlink ref="I204" r:id="rId39"/>
-    <hyperlink ref="J283" r:id="rId40"/>
+    <hyperlink ref="J284" r:id="rId40"/>
     <hyperlink ref="I236" r:id="rId41"/>
     <hyperlink ref="J93" r:id="rId42"/>
     <hyperlink ref="I93" r:id="rId43"/>
@@ -11101,8 +11122,8 @@
     <hyperlink ref="I12" r:id="rId53"/>
     <hyperlink ref="J12" r:id="rId54"/>
     <hyperlink ref="I2" r:id="rId55"/>
-    <hyperlink ref="I286" r:id="rId56"/>
-    <hyperlink ref="J287" r:id="rId57"/>
+    <hyperlink ref="I287" r:id="rId56"/>
+    <hyperlink ref="J288" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
@@ -11128,7 +11149,7 @@
         <v>931</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTBLANK(AD!B2:B287)</f>
+        <f>COUNTBLANK(AD!B2:B288)</f>
         <v>0</v>
       </c>
     </row>
@@ -11137,7 +11158,7 @@
         <v>932</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA1")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"OK")-COUNTIFS(AD!B2:B287,"BETA1",AD!A2:A287,"SERGIO")</f>
+        <f>COUNTIFS(AD!B2:B288,"BETA1")-COUNTIFS(AD!B2:B288,"BETA1",AD!A2:A288,"OK")-COUNTIFS(AD!B2:B288,"BETA1",AD!A2:A288,"SERGIO")</f>
         <v>0</v>
       </c>
     </row>
@@ -11146,7 +11167,7 @@
         <v>933</v>
       </c>
       <c r="B3" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA2")-COUNTIFS(AD!B2:B287,"BETA2",AD!A2:A287,"OK")</f>
+        <f>COUNTIFS(AD!B2:B288,"BETA2")-COUNTIFS(AD!B2:B288,"BETA2",AD!A2:A288,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -11155,7 +11176,7 @@
         <v>934</v>
       </c>
       <c r="B4" s="3">
-        <f>COUNTIFS(AD!B2:B287,"BETA3")-COUNTIFS(AD!B2:B287,"BETA3",AD!A2:A287,"OK")</f>
+        <f>COUNTIFS(AD!B2:B288,"BETA3")-COUNTIFS(AD!B2:B288,"BETA3",AD!A2:A288,"OK")</f>
         <v>0</v>
       </c>
     </row>
@@ -11165,7 +11186,7 @@
         <v>935</v>
       </c>
       <c r="B6" s="3">
-        <f>COUNTIFS(AD!A2:A287,"OK" )+COUNTIFS(AD!A2:A287,"SERGIO" )</f>
+        <f>COUNTIFS(AD!A2:A288,"OK" )+COUNTIFS(AD!A2:A288,"SERGIO" )</f>
         <v>0</v>
       </c>
     </row>
